--- a/tp5-busquedas-locales/code/hill_climbing_results.xlsx
+++ b/tp5-busquedas-locales/code/hill_climbing_results.xlsx
@@ -455,10 +455,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.0009970664978027344</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009968280792236328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.0009970664978027344</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -532,10 +532,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.0009982585906982422</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -554,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -565,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -609,10 +609,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -620,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -631,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -664,10 +664,10 @@
         <v>4</v>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0009975433349609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -675,7 +675,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -686,10 +686,10 @@
         <v>4</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>0.0009973049163818359</v>
       </c>
     </row>
     <row r="24">
@@ -697,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>4</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0009975433349609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -730,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>4</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.0009970664978027344</v>
       </c>
     </row>
     <row r="29">
@@ -752,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="B30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>8</v>
       </c>
       <c r="B32" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C32" t="n">
-        <v>0.002991676330566406</v>
+        <v>0.01501989364624023</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C33" t="n">
-        <v>0.03490805625915527</v>
+        <v>0.05096960067749023</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>8</v>
       </c>
       <c r="B34" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01096987724304199</v>
+        <v>0.004053115844726562</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C35" t="n">
-        <v>0.001994609832763672</v>
+        <v>0.003989458084106445</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C36" t="n">
-        <v>0.005983829498291016</v>
+        <v>0.01499509811401367</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>8</v>
       </c>
       <c r="B37" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03191471099853516</v>
+        <v>0.0109708309173584</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>5</v>
       </c>
       <c r="C38" t="n">
-        <v>0.002991914749145508</v>
+        <v>0.002991676330566406</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>8</v>
       </c>
       <c r="B39" t="n">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03690099716186523</v>
+        <v>0.01598763465881348</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>8</v>
       </c>
       <c r="B40" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003989458084106445</v>
+        <v>0.0210258960723877</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>8</v>
       </c>
       <c r="B41" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C41" t="n">
-        <v>0.004986763000488281</v>
+        <v>0.01723527908325195</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>8</v>
       </c>
       <c r="B42" t="n">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="C42" t="n">
-        <v>0.06781840324401855</v>
+        <v>0.007978916168212891</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
-        <v>0.002992153167724609</v>
+        <v>0.003988981246948242</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>8</v>
       </c>
       <c r="B44" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="n">
-        <v>0.002992391586303711</v>
+        <v>0.004986763000488281</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="n">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C45" t="n">
-        <v>0.009972810745239258</v>
+        <v>0.05186128616333008</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>8</v>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="C46" t="n">
-        <v>0.003989458084106445</v>
+        <v>0.05994772911071777</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>8</v>
       </c>
       <c r="B47" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>0.003989458084106445</v>
+        <v>0.009034633636474609</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>8</v>
       </c>
       <c r="B48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001994609832763672</v>
+        <v>0.003048181533813477</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>8</v>
       </c>
       <c r="B49" t="n">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01994657516479492</v>
+        <v>0.05893468856811523</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>8</v>
       </c>
       <c r="B50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>0.004986763000488281</v>
+        <v>0.002992153167724609</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>8</v>
       </c>
       <c r="B51" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>0.005984067916870117</v>
+        <v>0.003989219665527344</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>8</v>
       </c>
       <c r="B52" t="n">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C52" t="n">
-        <v>0.007978677749633789</v>
+        <v>0.06302213668823242</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>8</v>
       </c>
       <c r="B53" t="n">
-        <v>164</v>
+        <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1077117919921875</v>
+        <v>0.004987001419067383</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>8</v>
       </c>
       <c r="B54" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0359039306640625</v>
+        <v>0.0160679817199707</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>8</v>
       </c>
       <c r="B55" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C55" t="n">
-        <v>0.002992153167724609</v>
+        <v>0.02298641204833984</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>8</v>
       </c>
       <c r="B56" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6592371463775635</v>
+        <v>0.003989934921264648</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C57" t="n">
-        <v>0.002992153167724609</v>
+        <v>0.01296520233154297</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>8</v>
       </c>
       <c r="B58" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C58" t="n">
-        <v>0.01296544075012207</v>
+        <v>0.01102709770202637</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>8</v>
       </c>
       <c r="B59" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C59" t="n">
-        <v>0.01196789741516113</v>
+        <v>0.005984067916870117</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>8</v>
       </c>
       <c r="B60" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>0.007978439331054688</v>
+        <v>0.002042770385742188</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>8</v>
       </c>
       <c r="B61" t="n">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="C61" t="n">
-        <v>0.06382966041564941</v>
+        <v>0.008975982666015625</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>10</v>
       </c>
       <c r="B62" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
-        <v>0.02393579483032227</v>
+        <v>0.009973287582397461</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>10</v>
       </c>
       <c r="B63" t="n">
-        <v>35</v>
+        <v>211</v>
       </c>
       <c r="C63" t="n">
-        <v>0.05485320091247559</v>
+        <v>0.3339748382568359</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>10</v>
       </c>
       <c r="B64" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="C64" t="n">
-        <v>0.008976221084594727</v>
+        <v>0.07803630828857422</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>10</v>
       </c>
       <c r="B65" t="n">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="C65" t="n">
-        <v>0.01296496391296387</v>
+        <v>0.1043069362640381</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>10</v>
       </c>
       <c r="B66" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C66" t="n">
-        <v>0.005984067916870117</v>
+        <v>0.06881594657897949</v>
       </c>
     </row>
     <row r="67">
@@ -1170,10 +1170,10 @@
         <v>10</v>
       </c>
       <c r="B67" t="n">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0219414234161377</v>
+        <v>0.09188389778137207</v>
       </c>
     </row>
     <row r="68">
@@ -1181,10 +1181,10 @@
         <v>10</v>
       </c>
       <c r="B68" t="n">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2074456214904785</v>
+        <v>0.0110161304473877</v>
       </c>
     </row>
     <row r="69">
@@ -1192,10 +1192,10 @@
         <v>10</v>
       </c>
       <c r="B69" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>0.02094388008117676</v>
+        <v>0.01199579238891602</v>
       </c>
     </row>
     <row r="70">
@@ -1203,10 +1203,10 @@
         <v>10</v>
       </c>
       <c r="B70" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C70" t="n">
-        <v>0.04188823699951172</v>
+        <v>0.03898525238037109</v>
       </c>
     </row>
     <row r="71">
@@ -1214,10 +1214,10 @@
         <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>107</v>
+        <v>1000</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1675515174865723</v>
+        <v>1.586769819259644</v>
       </c>
     </row>
     <row r="72">
@@ -1225,10 +1225,10 @@
         <v>10</v>
       </c>
       <c r="B72" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08577060699462891</v>
+        <v>0.04288530349731445</v>
       </c>
     </row>
     <row r="73">
@@ -1236,10 +1236,10 @@
         <v>10</v>
       </c>
       <c r="B73" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1874988079071045</v>
+        <v>0.1924850940704346</v>
       </c>
     </row>
     <row r="74">
@@ -1247,10 +1247,10 @@
         <v>10</v>
       </c>
       <c r="B74" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C74" t="n">
-        <v>0.02593064308166504</v>
+        <v>0.01795220375061035</v>
       </c>
     </row>
     <row r="75">
@@ -1258,10 +1258,10 @@
         <v>10</v>
       </c>
       <c r="B75" t="n">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1914877891540527</v>
+        <v>0.01795244216918945</v>
       </c>
     </row>
     <row r="76">
@@ -1269,10 +1269,10 @@
         <v>10</v>
       </c>
       <c r="B76" t="n">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C76" t="n">
-        <v>0.007978916168212891</v>
+        <v>0.04088973999023438</v>
       </c>
     </row>
     <row r="77">
@@ -1280,10 +1280,10 @@
         <v>10</v>
       </c>
       <c r="B77" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C77" t="n">
-        <v>0.01595711708068848</v>
+        <v>0.1146936416625977</v>
       </c>
     </row>
     <row r="78">
@@ -1291,10 +1291,10 @@
         <v>10</v>
       </c>
       <c r="B78" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C78" t="n">
-        <v>0.02293896675109863</v>
+        <v>0.01994681358337402</v>
       </c>
     </row>
     <row r="79">
@@ -1302,10 +1302,10 @@
         <v>10</v>
       </c>
       <c r="B79" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0468745231628418</v>
+        <v>0.08676767349243164</v>
       </c>
     </row>
     <row r="80">
@@ -1313,10 +1313,10 @@
         <v>10</v>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0468745231628418</v>
+        <v>0.03291201591491699</v>
       </c>
     </row>
     <row r="81">
@@ -1324,10 +1324,10 @@
         <v>10</v>
       </c>
       <c r="B81" t="n">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01196837425231934</v>
+        <v>0.08178138732910156</v>
       </c>
     </row>
     <row r="82">
@@ -1335,10 +1335,10 @@
         <v>10</v>
       </c>
       <c r="B82" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01296520233154297</v>
+        <v>0.008975982666015625</v>
       </c>
     </row>
     <row r="83">
@@ -1346,10 +1346,10 @@
         <v>10</v>
       </c>
       <c r="B83" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C83" t="n">
-        <v>0.01894927024841309</v>
+        <v>0.01695466041564941</v>
       </c>
     </row>
     <row r="84">
@@ -1357,10 +1357,10 @@
         <v>10</v>
       </c>
       <c r="B84" t="n">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="C84" t="n">
-        <v>0.05585050582885742</v>
+        <v>0.3650243282318115</v>
       </c>
     </row>
     <row r="85">
@@ -1368,10 +1368,10 @@
         <v>10</v>
       </c>
       <c r="B85" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02992010116577148</v>
+        <v>0.01296520233154297</v>
       </c>
     </row>
     <row r="86">
@@ -1379,10 +1379,10 @@
         <v>10</v>
       </c>
       <c r="B86" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C86" t="n">
-        <v>0.008976221084594727</v>
+        <v>0.06682133674621582</v>
       </c>
     </row>
     <row r="87">
@@ -1390,10 +1390,10 @@
         <v>10</v>
       </c>
       <c r="B87" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01595711708068848</v>
+        <v>0.02293848991394043</v>
       </c>
     </row>
     <row r="88">
@@ -1401,10 +1401,10 @@
         <v>10</v>
       </c>
       <c r="B88" t="n">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="C88" t="n">
-        <v>0.183509349822998</v>
+        <v>0.1565811634063721</v>
       </c>
     </row>
     <row r="89">
@@ -1412,10 +1412,10 @@
         <v>10</v>
       </c>
       <c r="B89" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C89" t="n">
-        <v>0.02094388008117676</v>
+        <v>0.01296567916870117</v>
       </c>
     </row>
     <row r="90">
@@ -1423,10 +1423,10 @@
         <v>10</v>
       </c>
       <c r="B90" t="n">
-        <v>103</v>
+        <v>6</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1625652313232422</v>
+        <v>0.009973049163818359</v>
       </c>
     </row>
     <row r="91">
@@ -1434,10 +1434,10 @@
         <v>10</v>
       </c>
       <c r="B91" t="n">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C91" t="n">
-        <v>0.0608375072479248</v>
+        <v>0.03390932083129883</v>
       </c>
     </row>
     <row r="92">
@@ -1445,10 +1445,10 @@
         <v>12</v>
       </c>
       <c r="B92" t="n">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2767982482910156</v>
+        <v>0.1117012500762939</v>
       </c>
     </row>
     <row r="93">
@@ -1456,10 +1456,10 @@
         <v>12</v>
       </c>
       <c r="B93" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C93" t="n">
-        <v>0.1077120304107666</v>
+        <v>0.2054505348205566</v>
       </c>
     </row>
     <row r="94">
@@ -1467,10 +1467,10 @@
         <v>12</v>
       </c>
       <c r="B94" t="n">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="C94" t="n">
-        <v>0.1934826374053955</v>
+        <v>0.05684828758239746</v>
       </c>
     </row>
     <row r="95">
@@ -1478,10 +1478,10 @@
         <v>12</v>
       </c>
       <c r="B95" t="n">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="C95" t="n">
-        <v>0.341087818145752</v>
+        <v>0.05385637283325195</v>
       </c>
     </row>
     <row r="96">
@@ -1489,10 +1489,10 @@
         <v>12</v>
       </c>
       <c r="B96" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1077871322631836</v>
+        <v>0.1894927024841309</v>
       </c>
     </row>
     <row r="97">
@@ -1500,10 +1500,10 @@
         <v>12</v>
       </c>
       <c r="B97" t="n">
-        <v>68</v>
+        <v>13</v>
       </c>
       <c r="C97" t="n">
-        <v>0.2130532264709473</v>
+        <v>0.04089069366455078</v>
       </c>
     </row>
     <row r="98">
@@ -1511,10 +1511,10 @@
         <v>12</v>
       </c>
       <c r="B98" t="n">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="C98" t="n">
-        <v>0.04094123840332031</v>
+        <v>0.9255251884460449</v>
       </c>
     </row>
     <row r="99">
@@ -1522,10 +1522,10 @@
         <v>12</v>
       </c>
       <c r="B99" t="n">
-        <v>45</v>
+        <v>1000</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1438090801239014</v>
+        <v>3.311326742172241</v>
       </c>
     </row>
     <row r="100">
@@ -1533,10 +1533,10 @@
         <v>12</v>
       </c>
       <c r="B100" t="n">
-        <v>112</v>
+        <v>34</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3592171669006348</v>
+        <v>0.1186830997467041</v>
       </c>
     </row>
     <row r="101">
@@ -1544,10 +1544,10 @@
         <v>12</v>
       </c>
       <c r="B101" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="C101" t="n">
-        <v>0.06981348991394043</v>
+        <v>0.1815574169158936</v>
       </c>
     </row>
     <row r="102">
@@ -1555,10 +1555,10 @@
         <v>12</v>
       </c>
       <c r="B102" t="n">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="C102" t="n">
-        <v>0.01994681358337402</v>
+        <v>0.3426620960235596</v>
       </c>
     </row>
     <row r="103">
@@ -1566,10 +1566,10 @@
         <v>12</v>
       </c>
       <c r="B103" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1077117919921875</v>
+        <v>0.077362060546875</v>
       </c>
     </row>
     <row r="104">
@@ -1577,10 +1577,10 @@
         <v>12</v>
       </c>
       <c r="B104" t="n">
-        <v>47</v>
+        <v>1000</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1511049270629883</v>
+        <v>3.26144814491272</v>
       </c>
     </row>
     <row r="105">
@@ -1588,10 +1588,10 @@
         <v>12</v>
       </c>
       <c r="B105" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="C105" t="n">
-        <v>0.3111639022827148</v>
+        <v>0.1132400035858154</v>
       </c>
     </row>
     <row r="106">
@@ -1599,10 +1599,10 @@
         <v>12</v>
       </c>
       <c r="B106" t="n">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3321402072906494</v>
+        <v>0.09229373931884766</v>
       </c>
     </row>
     <row r="107">
@@ -1610,10 +1610,10 @@
         <v>12</v>
       </c>
       <c r="B107" t="n">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C107" t="n">
-        <v>0.07679486274719238</v>
+        <v>0.5266921520233154</v>
       </c>
     </row>
     <row r="108">
@@ -1621,10 +1621,10 @@
         <v>12</v>
       </c>
       <c r="B108" t="n">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2647969722747803</v>
+        <v>0.03789877891540527</v>
       </c>
     </row>
     <row r="109">
@@ -1632,10 +1632,10 @@
         <v>12</v>
       </c>
       <c r="B109" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C109" t="n">
-        <v>0.04787206649780273</v>
+        <v>0.01795196533203125</v>
       </c>
     </row>
     <row r="110">
@@ -1643,10 +1643,10 @@
         <v>12</v>
       </c>
       <c r="B110" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>0.1740396022796631</v>
+        <v>0.02349543571472168</v>
       </c>
     </row>
     <row r="111">
@@ -1654,10 +1654,10 @@
         <v>12</v>
       </c>
       <c r="B111" t="n">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C111" t="n">
-        <v>0.04488015174865723</v>
+        <v>0.1595730781555176</v>
       </c>
     </row>
     <row r="112">
@@ -1665,10 +1665,10 @@
         <v>12</v>
       </c>
       <c r="B112" t="n">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C112" t="n">
-        <v>0.02792501449584961</v>
+        <v>0.163118839263916</v>
       </c>
     </row>
     <row r="113">
@@ -1676,10 +1676,10 @@
         <v>12</v>
       </c>
       <c r="B113" t="n">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="C113" t="n">
-        <v>0.03490662574768066</v>
+        <v>0.4109954833984375</v>
       </c>
     </row>
     <row r="114">
@@ -1687,10 +1687,10 @@
         <v>12</v>
       </c>
       <c r="B114" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="C114" t="n">
-        <v>3.167116641998291</v>
+        <v>0.04388236999511719</v>
       </c>
     </row>
     <row r="115">
@@ -1698,10 +1698,10 @@
         <v>12</v>
       </c>
       <c r="B115" t="n">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1870050430297852</v>
+        <v>0.05738091468811035</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>86</v>
       </c>
       <c r="C116" t="n">
-        <v>0.2732794284820557</v>
+        <v>0.2698144912719727</v>
       </c>
     </row>
     <row r="117">
@@ -1720,10 +1720,10 @@
         <v>12</v>
       </c>
       <c r="B117" t="n">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="C117" t="n">
-        <v>0.556018590927124</v>
+        <v>0.2179520130157471</v>
       </c>
     </row>
     <row r="118">
@@ -1731,10 +1731,10 @@
         <v>12</v>
       </c>
       <c r="B118" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C118" t="n">
-        <v>0.04388284683227539</v>
+        <v>0.02293872833251953</v>
       </c>
     </row>
     <row r="119">
@@ -1742,10 +1742,10 @@
         <v>12</v>
       </c>
       <c r="B119" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="C119" t="n">
-        <v>0.235370397567749</v>
+        <v>0.04288554191589355</v>
       </c>
     </row>
     <row r="120">
@@ -1753,10 +1753,10 @@
         <v>12</v>
       </c>
       <c r="B120" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C120" t="n">
-        <v>0.03191494941711426</v>
+        <v>0.1730988025665283</v>
       </c>
     </row>
     <row r="121">
@@ -1764,10 +1764,10 @@
         <v>12</v>
       </c>
       <c r="B121" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C121" t="n">
-        <v>0.07878923416137695</v>
+        <v>0.04886913299560547</v>
       </c>
     </row>
     <row r="122">
@@ -1775,10 +1775,10 @@
         <v>15</v>
       </c>
       <c r="B122" t="n">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C122" t="n">
-        <v>0.4418184757232666</v>
+        <v>0.09731864929199219</v>
       </c>
     </row>
     <row r="123">
@@ -1786,10 +1786,10 @@
         <v>15</v>
       </c>
       <c r="B123" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C123" t="n">
-        <v>0.04488015174865723</v>
+        <v>0.1700806617736816</v>
       </c>
     </row>
     <row r="124">
@@ -1797,10 +1797,10 @@
         <v>15</v>
       </c>
       <c r="B124" t="n">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C124" t="n">
-        <v>0.4408211708068848</v>
+        <v>0.3346431255340576</v>
       </c>
     </row>
     <row r="125">
@@ -1808,10 +1808,10 @@
         <v>15</v>
       </c>
       <c r="B125" t="n">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="C125" t="n">
-        <v>0.2433493137359619</v>
+        <v>0.6964032649993896</v>
       </c>
     </row>
     <row r="126">
@@ -1819,10 +1819,10 @@
         <v>15</v>
       </c>
       <c r="B126" t="n">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1515946388244629</v>
+        <v>0.4014637470245361</v>
       </c>
     </row>
     <row r="127">
@@ -1830,10 +1830,10 @@
         <v>15</v>
       </c>
       <c r="B127" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C127" t="n">
-        <v>0.09873580932617188</v>
+        <v>0.4813365936279297</v>
       </c>
     </row>
     <row r="128">
@@ -1841,10 +1841,10 @@
         <v>15</v>
       </c>
       <c r="B128" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C128" t="n">
-        <v>0.05285906791687012</v>
+        <v>0.06981348991394043</v>
       </c>
     </row>
     <row r="129">
@@ -1852,10 +1852,10 @@
         <v>15</v>
       </c>
       <c r="B129" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3959410190582275</v>
+        <v>0.4943270683288574</v>
       </c>
     </row>
     <row r="130">
@@ -1863,10 +1863,10 @@
         <v>15</v>
       </c>
       <c r="B130" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C130" t="n">
-        <v>0.1136960983276367</v>
+        <v>0.2433490753173828</v>
       </c>
     </row>
     <row r="131">
@@ -1874,10 +1874,10 @@
         <v>15</v>
       </c>
       <c r="B131" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C131" t="n">
-        <v>0.09075736999511719</v>
+        <v>0.2424540519714355</v>
       </c>
     </row>
     <row r="132">
@@ -1885,10 +1885,10 @@
         <v>15</v>
       </c>
       <c r="B132" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="C132" t="n">
-        <v>0.1595730781555176</v>
+        <v>0.3103036880493164</v>
       </c>
     </row>
     <row r="133">
@@ -1896,10 +1896,10 @@
         <v>15</v>
       </c>
       <c r="B133" t="n">
-        <v>386</v>
+        <v>27</v>
       </c>
       <c r="C133" t="n">
-        <v>2.92418098449707</v>
+        <v>0.2079861164093018</v>
       </c>
     </row>
     <row r="134">
@@ -1907,10 +1907,10 @@
         <v>15</v>
       </c>
       <c r="B134" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C134" t="n">
-        <v>0.1585760116577148</v>
+        <v>0.1725387573242188</v>
       </c>
     </row>
     <row r="135">
@@ -1918,10 +1918,10 @@
         <v>15</v>
       </c>
       <c r="B135" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C135" t="n">
-        <v>0.1216747760772705</v>
+        <v>0.1361770629882812</v>
       </c>
     </row>
     <row r="136">
@@ -1929,10 +1929,10 @@
         <v>15</v>
       </c>
       <c r="B136" t="n">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C136" t="n">
-        <v>0.1505973339080811</v>
+        <v>0.5890274047851562</v>
       </c>
     </row>
     <row r="137">
@@ -1940,10 +1940,10 @@
         <v>15</v>
       </c>
       <c r="B137" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C137" t="n">
-        <v>0.1356372833251953</v>
+        <v>0.1651113033294678</v>
       </c>
     </row>
     <row r="138">
@@ -1951,10 +1951,10 @@
         <v>15</v>
       </c>
       <c r="B138" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C138" t="n">
-        <v>0.1057171821594238</v>
+        <v>0.2020139694213867</v>
       </c>
     </row>
     <row r="139">
@@ -1962,10 +1962,10 @@
         <v>15</v>
       </c>
       <c r="B139" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="C139" t="n">
-        <v>7.626607179641724</v>
+        <v>0.1730706691741943</v>
       </c>
     </row>
     <row r="140">
@@ -1973,10 +1973,10 @@
         <v>15</v>
       </c>
       <c r="B140" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1208961009979248</v>
+        <v>0.2508831024169922</v>
       </c>
     </row>
     <row r="141">
@@ -1984,10 +1984,10 @@
         <v>15</v>
       </c>
       <c r="B141" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2872323989868164</v>
+        <v>0.07579779624938965</v>
       </c>
     </row>
     <row r="142">
@@ -1995,10 +1995,10 @@
         <v>15</v>
       </c>
       <c r="B142" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="C142" t="n">
-        <v>0.6821753978729248</v>
+        <v>0.1062495708465576</v>
       </c>
     </row>
     <row r="143">
@@ -2006,10 +2006,10 @@
         <v>15</v>
       </c>
       <c r="B143" t="n">
-        <v>162</v>
+        <v>35</v>
       </c>
       <c r="C143" t="n">
-        <v>1.316479921340942</v>
+        <v>0.2678253650665283</v>
       </c>
     </row>
     <row r="144">
@@ -2017,10 +2017,10 @@
         <v>15</v>
       </c>
       <c r="B144" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C144" t="n">
-        <v>0.1505975723266602</v>
+        <v>0.4788534641265869</v>
       </c>
     </row>
     <row r="145">
@@ -2028,10 +2028,10 @@
         <v>15</v>
       </c>
       <c r="B145" t="n">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="C145" t="n">
-        <v>0.2124316692352295</v>
+        <v>0.9910814762115479</v>
       </c>
     </row>
     <row r="146">
@@ -2039,10 +2039,10 @@
         <v>15</v>
       </c>
       <c r="B146" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C146" t="n">
-        <v>0.09973335266113281</v>
+        <v>0.08533835411071777</v>
       </c>
     </row>
     <row r="147">
@@ -2050,10 +2050,10 @@
         <v>15</v>
       </c>
       <c r="B147" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0608372688293457</v>
+        <v>0.137631893157959</v>
       </c>
     </row>
     <row r="148">
@@ -2061,10 +2061,10 @@
         <v>15</v>
       </c>
       <c r="B148" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C148" t="n">
-        <v>0.2273921966552734</v>
+        <v>0.1501352787017822</v>
       </c>
     </row>
     <row r="149">
@@ -2072,10 +2072,10 @@
         <v>15</v>
       </c>
       <c r="B149" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>0.1934823989868164</v>
+        <v>0.2189524173736572</v>
       </c>
     </row>
     <row r="150">
@@ -2083,10 +2083,10 @@
         <v>15</v>
       </c>
       <c r="B150" t="n">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C150" t="n">
-        <v>0.09175467491149902</v>
+        <v>0.6010074615478516</v>
       </c>
     </row>
     <row r="151">
@@ -2094,10 +2094,10 @@
         <v>15</v>
       </c>
       <c r="B151" t="n">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="C151" t="n">
-        <v>0.4821298122406006</v>
+        <v>0.06981348991394043</v>
       </c>
     </row>
   </sheetData>

--- a/tp5-busquedas-locales/code/hill_climbing_results.xlsx
+++ b/tp5-busquedas-locales/code/hill_climbing_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Movimientos</t>
+          <t>Tablero solución</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Número de conflicos</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Cantidad de Movimientos</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Tiempo (segundos)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Historial de reinas amenazadas</t>
         </is>
       </c>
     </row>
@@ -454,1650 +469,3600 @@
       <c r="A2" t="n">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>5</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
-        <v>8</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>4</v>
       </c>
-      <c r="B4" t="n">
-        <v>4</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>6</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>[4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>3</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0009973049163818359</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[4, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>4</v>
       </c>
-      <c r="B7" t="n">
-        <v>4</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>4</v>
       </c>
-      <c r="B8" t="n">
-        <v>8</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[4, 4, 4, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>4</v>
       </c>
-      <c r="B9" t="n">
-        <v>3</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>0.0009982585906982422</v>
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>[4, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>4</v>
       </c>
-      <c r="B10" t="n">
-        <v>2</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>[2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>4</v>
       </c>
-      <c r="B11" t="n">
-        <v>4</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>[4, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>4</v>
       </c>
-      <c r="B12" t="n">
-        <v>3</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>[4, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>4</v>
       </c>
-      <c r="B13" t="n">
-        <v>2</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>4</v>
       </c>
-      <c r="B14" t="n">
-        <v>2</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>7</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[4, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
-        <v>4</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0009970664978027344</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[4, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>4</v>
       </c>
-      <c r="B16" t="n">
-        <v>2</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[4, 4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>4</v>
       </c>
-      <c r="B17" t="n">
-        <v>4</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>4</v>
       </c>
-      <c r="B18" t="n">
-        <v>3</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[4, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>4</v>
       </c>
-      <c r="B19" t="n">
-        <v>1</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>4</v>
       </c>
-      <c r="B20" t="n">
-        <v>4</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0009973049163818359</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[6, 0]</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>4</v>
       </c>
-      <c r="B21" t="n">
-        <v>1</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[4, 0]</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>4</v>
       </c>
-      <c r="B22" t="n">
-        <v>4</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[4, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>4</v>
       </c>
-      <c r="B23" t="n">
-        <v>2</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>4</v>
       </c>
-      <c r="B24" t="n">
-        <v>6</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>4</v>
       </c>
-      <c r="B25" t="n">
-        <v>2</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[0]</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>4</v>
       </c>
-      <c r="B26" t="n">
-        <v>3</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>4</v>
       </c>
-      <c r="B27" t="n">
-        <v>5</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0009975433349609375</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>4</v>
       </c>
-      <c r="B28" t="n">
-        <v>4</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>0.0009970664978027344</v>
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>4</v>
       </c>
-      <c r="B29" t="n">
-        <v>3</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>4</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>[2, 0, 3, 1]</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
         <v>2</v>
       </c>
-      <c r="C30" t="n">
-        <v>0</v>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>4</v>
       </c>
-      <c r="B31" t="n">
-        <v>5</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>[1, 3, 0, 2]</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>8</v>
       </c>
-      <c r="B32" t="n">
-        <v>21</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>[3, 1, 7, 5, 0, 2, 4, 6]</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>0.01501989364624023</v>
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>38</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.02599024772644043</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>8</v>
       </c>
-      <c r="B33" t="n">
-        <v>78</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>[5, 3, 6, 0, 7, 1, 4, 2]</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>0.05096960067749023</v>
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.001995325088500977</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>8</v>
       </c>
-      <c r="B34" t="n">
-        <v>6</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>[4, 0, 3, 5, 7, 1, 6, 2]</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>0.004053115844726562</v>
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.006980180740356445</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[10, 6, 4, 4, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>8</v>
       </c>
-      <c r="B35" t="n">
-        <v>7</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>[1, 7, 5, 0, 2, 4, 6, 3]</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>0.003989458084106445</v>
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.005070209503173828</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[6, 4, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>8</v>
       </c>
-      <c r="B36" t="n">
-        <v>23</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>[4, 1, 5, 0, 6, 3, 7, 2]</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>0.01499509811401367</v>
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.006041765213012695</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[10, 6, 6, 4, 4, 4, 4, 4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>8</v>
       </c>
-      <c r="B37" t="n">
-        <v>16</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>[2, 6, 1, 7, 5, 3, 0, 4]</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>0.0109708309173584</v>
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>20</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.01399660110473633</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>8</v>
       </c>
-      <c r="B38" t="n">
-        <v>5</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>[3, 7, 0, 2, 5, 1, 6, 4]</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>0.002991676330566406</v>
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>22</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0150144100189209</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>8</v>
       </c>
-      <c r="B39" t="n">
-        <v>25</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>[5, 1, 6, 0, 2, 4, 7, 3]</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>0.01598763465881348</v>
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.004986763000488281</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>[12, 8, 4, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>8</v>
       </c>
-      <c r="B40" t="n">
-        <v>32</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>[6, 2, 0, 5, 7, 4, 1, 3]</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>0.0210258960723877</v>
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.00199437141418457</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>[4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>8</v>
       </c>
-      <c r="B41" t="n">
-        <v>26</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>[2, 4, 1, 7, 0, 6, 3, 5]</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>0.01723527908325195</v>
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>15</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.009973526000976562</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>[12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>8</v>
       </c>
-      <c r="B42" t="n">
-        <v>10</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>[1, 5, 0, 6, 3, 7, 2, 4]</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>0.007978916168212891</v>
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>31</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.01994657516479492</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[14, 10, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>8</v>
       </c>
-      <c r="B43" t="n">
-        <v>6</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>[3, 7, 0, 2, 5, 1, 6, 4]</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>0.003988981246948242</v>
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>23</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.01602911949157715</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>[10, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>8</v>
       </c>
-      <c r="B44" t="n">
-        <v>8</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>[3, 1, 7, 4, 6, 0, 2, 5]</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>0.004986763000488281</v>
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>25</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.01701450347900391</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>[12, 8, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>8</v>
       </c>
-      <c r="B45" t="n">
-        <v>77</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>[4, 2, 0, 5, 7, 1, 3, 6]</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>0.05186128616333008</v>
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>64</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.04300761222839355</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>8</v>
       </c>
-      <c r="B46" t="n">
-        <v>91</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>[3, 6, 0, 7, 4, 1, 5, 2]</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>0.05994772911071777</v>
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>14</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.009015083312988281</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>[12, 8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>8</v>
       </c>
-      <c r="B47" t="n">
-        <v>14</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>[4, 2, 0, 5, 7, 1, 3, 6]</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>0.009034633636474609</v>
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>56</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.03699827194213867</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>[16, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>8</v>
       </c>
-      <c r="B48" t="n">
-        <v>5</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>[2, 4, 6, 0, 3, 1, 7, 5]</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>0.003048181533813477</v>
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>17</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.01202869415283203</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>[12, 8, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>8</v>
       </c>
-      <c r="B49" t="n">
-        <v>88</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>[5, 1, 6, 0, 2, 4, 7, 3]</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>0.05893468856811523</v>
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.002991914749145508</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>[6, 4, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>8</v>
       </c>
-      <c r="B50" t="n">
-        <v>5</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>[5, 2, 0, 7, 3, 1, 6, 4]</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>0.002992153167724609</v>
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>38</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.02499651908874512</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>[6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>8</v>
       </c>
-      <c r="B51" t="n">
-        <v>6</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>[5, 3, 6, 0, 7, 1, 4, 2]</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>0.003989219665527344</v>
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>63</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.04299044609069824</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>[10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>8</v>
       </c>
-      <c r="B52" t="n">
-        <v>94</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>[6, 2, 0, 5, 7, 4, 1, 3]</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>0.06302213668823242</v>
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>7</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.003989219665527344</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>[10, 6, 4, 4, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>8</v>
       </c>
-      <c r="B53" t="n">
-        <v>9</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>[4, 6, 1, 5, 2, 0, 7, 3]</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>0.004987001419067383</v>
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>6</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.004016399383544922</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>[8, 6, 4, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>8</v>
       </c>
-      <c r="B54" t="n">
-        <v>23</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>[1, 7, 5, 3, 6, 0, 2, 4]</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>0.0160679817199707</v>
+        <v>2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.6733434200286865</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>[10, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>8</v>
       </c>
-      <c r="B55" t="n">
-        <v>36</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>[6, 2, 7, 1, 4, 0, 5, 3]</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>0.02298641204833984</v>
+        <v>0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.001994848251342773</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>[6, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>8</v>
       </c>
-      <c r="B56" t="n">
-        <v>6</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>[1, 6, 2, 5, 7, 4, 0, 3]</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>0.003989934921264648</v>
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>31</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.02094388008117676</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>[8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>8</v>
       </c>
-      <c r="B57" t="n">
-        <v>20</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>[5, 2, 0, 7, 4, 1, 3, 6]</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>0.01296520233154297</v>
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.004986763000488281</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[10, 6, 4, 4, 4, 4, 4, 0]</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>8</v>
       </c>
-      <c r="B58" t="n">
-        <v>16</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>[6, 0, 2, 7, 5, 3, 1, 4]</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>0.01102709770202637</v>
+        <v>0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>33</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.02293848991394043</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>[4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>8</v>
       </c>
-      <c r="B59" t="n">
-        <v>9</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>[2, 5, 1, 6, 0, 3, 7, 4]</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>0.005984067916870117</v>
+        <v>0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>19</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.01296544075012207</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[8, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>8</v>
       </c>
-      <c r="B60" t="n">
-        <v>4</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>[2, 6, 1, 7, 4, 0, 3, 5]</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>0.002042770385742188</v>
+        <v>0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.001994609832763672</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>[6, 4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>8</v>
       </c>
-      <c r="B61" t="n">
-        <v>13</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>[6, 2, 7, 1, 4, 0, 5, 3]</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>0.008975982666015625</v>
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>18</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.01196789741516113</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>[10, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>10</v>
       </c>
-      <c r="B62" t="n">
-        <v>6</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>[2, 4, 8, 3, 5, 9, 1, 6, 0, 7]</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>0.009973287582397461</v>
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>36</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0578455924987793</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>[14, 10, 8, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>10</v>
       </c>
-      <c r="B63" t="n">
-        <v>211</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>[4, 6, 1, 5, 7, 0, 3, 8, 2, 9]</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>0.3339748382568359</v>
+        <v>0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>16</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.0259852409362793</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>[14, 8, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>10</v>
       </c>
-      <c r="B64" t="n">
-        <v>50</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>[5, 2, 4, 1, 7, 9, 6, 3, 0, 8]</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>0.07803630828857422</v>
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>332</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.5280299186706543</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>[18, 12, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>10</v>
       </c>
-      <c r="B65" t="n">
-        <v>64</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>[6, 1, 5, 8, 0, 9, 4, 2, 7, 3]</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>0.1043069362640381</v>
+        <v>0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>6</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.009973764419555664</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>[14, 8, 6, 4, 4, 0]</t>
+        </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>10</v>
       </c>
-      <c r="B66" t="n">
-        <v>29</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>[4, 8, 0, 9, 6, 2, 7, 1, 3, 5]</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>0.06881594657897949</v>
+        <v>0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>130</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.2140169143676758</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>[16, 12, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>10</v>
       </c>
-      <c r="B67" t="n">
-        <v>57</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>[5, 8, 1, 9, 7, 2, 0, 3, 6, 4]</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>0.09188389778137207</v>
+        <v>0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>42</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.06703948974609375</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>[8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>10</v>
       </c>
-      <c r="B68" t="n">
-        <v>7</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>[0, 4, 9, 5, 8, 1, 3, 6, 2, 7]</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>0.0110161304473877</v>
+        <v>0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>10</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.01595759391784668</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>[16, 10, 6, 4, 4, 4, 4, 4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>10</v>
       </c>
-      <c r="B69" t="n">
-        <v>8</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>[1, 5, 7, 2, 0, 8, 4, 9, 3, 6]</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>0.01199579238891602</v>
+        <v>0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>10</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.01601314544677734</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>[14, 10, 8, 6, 4, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>10</v>
       </c>
-      <c r="B70" t="n">
-        <v>25</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>[3, 7, 2, 8, 5, 9, 0, 6, 4, 1]</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>0.03898525238037109</v>
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>56</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.08897638320922852</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>[8, 6, 6, 6, 6, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>10</v>
       </c>
-      <c r="B71" t="n">
-        <v>1000</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>[7, 3, 1, 6, 4, 9, 0, 8, 5, 2]</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>1.586769819259644</v>
+        <v>0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0150454044342041</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>[8, 6, 4, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>10</v>
       </c>
-      <c r="B72" t="n">
-        <v>26</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>[3, 9, 6, 4, 1, 7, 0, 2, 8, 5]</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>0.04288530349731445</v>
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>24</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.03794741630554199</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>[10, 8, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>10</v>
       </c>
-      <c r="B73" t="n">
-        <v>121</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>[4, 9, 5, 3, 1, 7, 2, 8, 6, 0]</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>0.1924850940704346</v>
+        <v>0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>30</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.04802131652832031</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>[12, 8, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>10</v>
       </c>
-      <c r="B74" t="n">
-        <v>12</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>[2, 6, 8, 3, 0, 4, 9, 1, 5, 7]</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>0.01795220375061035</v>
+        <v>0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>43</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.06802988052368164</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>[16, 10, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>10</v>
       </c>
-      <c r="B75" t="n">
-        <v>11</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>[3, 9, 7, 4, 2, 0, 5, 1, 8, 6]</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>0.01795244216918945</v>
+        <v>0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>43</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.06902360916137695</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>[10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>10</v>
       </c>
-      <c r="B76" t="n">
-        <v>26</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>[9, 6, 3, 0, 7, 1, 8, 5, 2, 4]</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>0.04088973999023438</v>
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>11</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.01695489883422852</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>[20, 12, 6, 4, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>10</v>
       </c>
-      <c r="B77" t="n">
-        <v>68</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>[5, 7, 9, 1, 3, 8, 0, 2, 4, 6]</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>0.1146936416625977</v>
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>228</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.3629920482635498</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>[10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>10</v>
       </c>
-      <c r="B78" t="n">
-        <v>13</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>[3, 1, 6, 8, 5, 2, 0, 9, 7, 4]</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>0.01994681358337402</v>
+        <v>0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>72</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.1139447689056396</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>[14, 10, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>10</v>
       </c>
-      <c r="B79" t="n">
-        <v>56</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>[5, 3, 6, 9, 2, 8, 1, 4, 7, 0]</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>0.08676767349243164</v>
+        <v>0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>237</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.3770575523376465</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>[22, 14, 8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>10</v>
       </c>
-      <c r="B80" t="n">
-        <v>21</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>[7, 3, 0, 6, 1, 9, 5, 8, 2, 4]</t>
+        </is>
       </c>
       <c r="C80" t="n">
-        <v>0.03291201591491699</v>
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.01399564743041992</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>[8, 6, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>10</v>
       </c>
-      <c r="B81" t="n">
-        <v>53</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>[6, 2, 5, 7, 0, 3, 8, 4, 1, 9]</t>
+        </is>
       </c>
       <c r="C81" t="n">
-        <v>0.08178138732910156</v>
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>131</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.2080121040344238</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>[16, 12, 6, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>10</v>
       </c>
-      <c r="B82" t="n">
-        <v>6</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>[6, 2, 9, 5, 1, 8, 4, 0, 7, 3]</t>
+        </is>
       </c>
       <c r="C82" t="n">
-        <v>0.008975982666015625</v>
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>23</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.03599286079406738</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>[8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>10</v>
       </c>
-      <c r="B83" t="n">
-        <v>11</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>[3, 7, 0, 8, 1, 4, 6, 9, 2, 5]</t>
+        </is>
       </c>
       <c r="C83" t="n">
-        <v>0.01695466041564941</v>
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>32</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.05101227760314941</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>[10, 6, 6, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>10</v>
       </c>
-      <c r="B84" t="n">
-        <v>234</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>[6, 3, 0, 7, 5, 2, 9, 1, 4, 8]</t>
+        </is>
       </c>
       <c r="C84" t="n">
-        <v>0.3650243282318115</v>
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>215</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.3429644107818604</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>[12, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>10</v>
       </c>
-      <c r="B85" t="n">
-        <v>8</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>[2, 5, 8, 1, 3, 6, 9, 7, 0, 4]</t>
+        </is>
       </c>
       <c r="C85" t="n">
-        <v>0.01296520233154297</v>
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>51</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.08103442192077637</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>[10, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>10</v>
       </c>
-      <c r="B86" t="n">
-        <v>42</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>[2, 6, 1, 7, 5, 0, 9, 4, 8, 3]</t>
+        </is>
       </c>
       <c r="C86" t="n">
-        <v>0.06682133674621582</v>
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0140223503112793</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[14, 10, 6, 4, 4, 4, 4, 4, 0]</t>
+        </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>10</v>
       </c>
-      <c r="B87" t="n">
-        <v>14</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>[9, 5, 2, 0, 3, 6, 8, 1, 4, 7]</t>
+        </is>
       </c>
       <c r="C87" t="n">
-        <v>0.02293848991394043</v>
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>11</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.01801109313964844</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[22, 16, 10, 8, 6, 6, 6, 4, 4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>10</v>
       </c>
-      <c r="B88" t="n">
-        <v>97</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>[3, 1, 9, 5, 0, 2, 7, 2, 6, 8]</t>
+        </is>
       </c>
       <c r="C88" t="n">
-        <v>0.1565811634063721</v>
+        <v>2</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1.623976707458496</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[10, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>10</v>
       </c>
-      <c r="B89" t="n">
-        <v>8</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>[1, 5, 8, 0, 7, 4, 2, 9, 6, 3]</t>
+        </is>
       </c>
       <c r="C89" t="n">
-        <v>0.01296567916870117</v>
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>16</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.02601957321166992</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[16, 10, 8, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>10</v>
       </c>
-      <c r="B90" t="n">
-        <v>6</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>[7, 2, 4, 8, 0, 5, 9, 6, 1, 3]</t>
+        </is>
       </c>
       <c r="C90" t="n">
-        <v>0.009973049163818359</v>
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>208</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.3309831619262695</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>10</v>
       </c>
-      <c r="B91" t="n">
-        <v>22</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>[4, 2, 5, 8, 6, 0, 3, 1, 7, 9]</t>
+        </is>
       </c>
       <c r="C91" t="n">
-        <v>0.03390932083129883</v>
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>76</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.120980978012085</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>[12, 8, 6, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>12</v>
       </c>
-      <c r="B92" t="n">
-        <v>35</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>[9, 7, 5, 3, 8, 0, 11, 4, 10, 1, 6, 2]</t>
+        </is>
       </c>
       <c r="C92" t="n">
-        <v>0.1117012500762939</v>
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.01695442199707031</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>[14, 10, 6, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>12</v>
       </c>
-      <c r="B93" t="n">
-        <v>65</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>[0, 9, 4, 10, 5, 3, 1, 11, 7, 2, 6, 8]</t>
+        </is>
       </c>
       <c r="C93" t="n">
-        <v>0.2054505348205566</v>
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>48</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.1549296379089355</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>[16, 10, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>12</v>
       </c>
-      <c r="B94" t="n">
-        <v>18</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>[11, 6, 4, 2, 0, 8, 10, 7, 1, 3, 5, 9]</t>
+        </is>
       </c>
       <c r="C94" t="n">
-        <v>0.05684828758239746</v>
+        <v>0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>72</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.2320642471313477</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>[14, 10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>12</v>
       </c>
-      <c r="B95" t="n">
-        <v>17</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>[1, 9, 7, 3, 8, 2, 5, 10, 0, 11, 6, 4]</t>
+        </is>
       </c>
       <c r="C95" t="n">
-        <v>0.05385637283325195</v>
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>18</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.05802059173583984</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>[20, 14, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>12</v>
       </c>
-      <c r="B96" t="n">
-        <v>60</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>[6, 11, 9, 4, 1, 5, 10, 2, 0, 8, 3, 7]</t>
+        </is>
       </c>
       <c r="C96" t="n">
-        <v>0.1894927024841309</v>
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>97</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.3146436214447021</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>[12, 10, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>12</v>
       </c>
-      <c r="B97" t="n">
-        <v>13</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>[5, 1, 6, 9, 3, 8, 0, 2, 10, 7, 11, 4]</t>
+        </is>
       </c>
       <c r="C97" t="n">
-        <v>0.04089069366455078</v>
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>8</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.02593064308166504</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>[16, 10, 8, 4, 4, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>12</v>
       </c>
-      <c r="B98" t="n">
-        <v>288</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>[4, 6, 11, 5, 10, 0, 9, 3, 8, 2, 7, 1]</t>
+        </is>
       </c>
       <c r="C98" t="n">
-        <v>0.9255251884460449</v>
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.02293872833251953</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>[18, 12, 6, 4, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>12</v>
       </c>
-      <c r="B99" t="n">
-        <v>1000</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>[5, 11, 0, 3, 6, 9, 2, 10, 7, 4, 1, 8]</t>
+        </is>
       </c>
       <c r="C99" t="n">
-        <v>3.311326742172241</v>
+        <v>0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>8</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.02593064308166504</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>[16, 12, 6, 4, 4, 4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>12</v>
       </c>
-      <c r="B100" t="n">
-        <v>34</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>[2, 10, 6, 3, 5, 8, 11, 0, 7, 1, 4, 9]</t>
+        </is>
       </c>
       <c r="C100" t="n">
-        <v>0.1186830997467041</v>
+        <v>0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>22</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0718085765838623</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>[16, 10, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>12</v>
       </c>
-      <c r="B101" t="n">
-        <v>57</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>[5, 8, 1, 11, 2, 7, 10, 4, 0, 9, 3, 6]</t>
+        </is>
       </c>
       <c r="C101" t="n">
-        <v>0.1815574169158936</v>
+        <v>0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>19</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0608367919921875</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>[24, 18, 12, 10, 6, 6, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>12</v>
       </c>
-      <c r="B102" t="n">
-        <v>107</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>[8, 3, 1, 4, 11, 9, 6, 10, 5, 2, 0, 7]</t>
+        </is>
       </c>
       <c r="C102" t="n">
-        <v>0.3426620960235596</v>
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>19</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.06191897392272949</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>[12, 10, 8, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>12</v>
       </c>
-      <c r="B103" t="n">
-        <v>24</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>[7, 3, 10, 0, 2, 8, 5, 11, 9, 1, 6, 4]</t>
+        </is>
       </c>
       <c r="C103" t="n">
-        <v>0.077362060546875</v>
+        <v>0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>12</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.03899407386779785</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>[16, 12, 8, 4, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>12</v>
       </c>
-      <c r="B104" t="n">
-        <v>1000</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>[3, 7, 2, 4, 11, 9, 0, 5, 10, 1, 6, 8]</t>
+        </is>
       </c>
       <c r="C104" t="n">
-        <v>3.26144814491272</v>
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>71</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.2289869785308838</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>[10, 8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>12</v>
       </c>
-      <c r="B105" t="n">
-        <v>36</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>[8, 4, 1, 7, 9, 0, 3, 5, 10, 2, 6, 11]</t>
+        </is>
       </c>
       <c r="C105" t="n">
-        <v>0.1132400035858154</v>
+        <v>2</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.231031179428101</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>[18, 14, 10, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+        </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>12</v>
       </c>
-      <c r="B106" t="n">
-        <v>29</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>[1, 4, 6, 10, 3, 11, 8, 5, 2, 9, 7, 0]</t>
+        </is>
       </c>
       <c r="C106" t="n">
-        <v>0.09229373931884766</v>
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>35</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.1120147705078125</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>[18, 14, 12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>12</v>
       </c>
-      <c r="B107" t="n">
-        <v>167</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>[2, 7, 5, 3, 11, 0, 10, 6, 9, 1, 4, 8]</t>
+        </is>
       </c>
       <c r="C107" t="n">
-        <v>0.5266921520233154</v>
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>64</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.2069723606109619</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>[16, 10, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>12</v>
       </c>
-      <c r="B108" t="n">
-        <v>12</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>[8, 2, 4, 10, 3, 9, 11, 5, 1, 6, 0, 7]</t>
+        </is>
       </c>
       <c r="C108" t="n">
-        <v>0.03789877891540527</v>
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>21</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.06803250312805176</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[20, 14, 10, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>12</v>
       </c>
-      <c r="B109" t="n">
-        <v>6</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>[2, 6, 8, 10, 1, 4, 0, 11, 9, 7, 5, 3]</t>
+        </is>
       </c>
       <c r="C109" t="n">
-        <v>0.01795196533203125</v>
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>40</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.1290018558502197</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>[24, 16, 10, 6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>12</v>
       </c>
-      <c r="B110" t="n">
-        <v>7</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>[11, 8, 3, 5, 10, 1, 4, 0, 7, 9, 2, 6]</t>
+        </is>
       </c>
       <c r="C110" t="n">
-        <v>0.02349543571472168</v>
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>30</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.09600830078125</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>[22, 14, 10, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>12</v>
       </c>
-      <c r="B111" t="n">
-        <v>49</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>[4, 8, 5, 9, 2, 10, 7, 3, 0, 11, 1, 6]</t>
+        </is>
       </c>
       <c r="C111" t="n">
-        <v>0.1595730781555176</v>
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>57</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.1839773654937744</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>[22, 16, 10, 6, 6, 6, 6, 6, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>12</v>
       </c>
-      <c r="B112" t="n">
-        <v>49</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>[1, 4, 10, 5, 11, 9, 3, 6, 8, 2, 0, 7]</t>
+        </is>
       </c>
       <c r="C112" t="n">
-        <v>0.163118839263916</v>
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>14</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.04500341415405273</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>[20, 14, 8, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>12</v>
       </c>
-      <c r="B113" t="n">
-        <v>130</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>[4, 9, 7, 10, 1, 3, 0, 8, 11, 5, 2, 6]</t>
+        </is>
       </c>
       <c r="C113" t="n">
-        <v>0.4109954833984375</v>
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>65</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.2100012302398682</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>[20, 14, 10, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>12</v>
       </c>
-      <c r="B114" t="n">
-        <v>14</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>[4, 9, 1, 3, 7, 10, 2, 0, 5, 11, 8, 6]</t>
+        </is>
       </c>
       <c r="C114" t="n">
-        <v>0.04388236999511719</v>
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>73</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.2374706268310547</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>[18, 14, 10, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>12</v>
       </c>
-      <c r="B115" t="n">
-        <v>18</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>[5, 1, 10, 4, 7, 11, 8, 3, 0, 6, 9, 2]</t>
+        </is>
       </c>
       <c r="C115" t="n">
-        <v>0.05738091468811035</v>
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>36</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.1176855564117432</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>[12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>12</v>
       </c>
-      <c r="B116" t="n">
-        <v>86</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>[2, 7, 3, 10, 8, 1, 5, 0, 11, 6, 4, 9]</t>
+        </is>
       </c>
       <c r="C116" t="n">
-        <v>0.2698144912719727</v>
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>24</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.07685708999633789</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>[12, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
         <v>12</v>
       </c>
-      <c r="B117" t="n">
-        <v>69</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>[5, 10, 6, 9, 3, 1, 8, 2, 11, 7, 0, 4]</t>
+        </is>
       </c>
       <c r="C117" t="n">
-        <v>0.2179520130157471</v>
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>30</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.09696102142333984</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>[22, 14, 10, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
         <v>12</v>
       </c>
-      <c r="B118" t="n">
-        <v>7</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>[5, 2, 6, 9, 11, 8, 1, 4, 10, 7, 0, 3]</t>
+        </is>
       </c>
       <c r="C118" t="n">
-        <v>0.02293872833251953</v>
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>89</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.2860469818115234</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>[18, 14, 10, 6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>12</v>
       </c>
-      <c r="B119" t="n">
-        <v>13</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>[4, 10, 7, 3, 1, 11, 9, 0, 2, 5, 8, 6]</t>
+        </is>
       </c>
       <c r="C119" t="n">
-        <v>0.04288554191589355</v>
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>96</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.310936450958252</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>[10, 8, 6, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
         <v>12</v>
       </c>
-      <c r="B120" t="n">
-        <v>54</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>[5, 3, 9, 0, 2, 8, 10, 7, 4, 1, 11, 6]</t>
+        </is>
       </c>
       <c r="C120" t="n">
-        <v>0.1730988025665283</v>
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>197</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.6340463161468506</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>[20, 12, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
         <v>12</v>
       </c>
-      <c r="B121" t="n">
-        <v>15</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>[6, 9, 1, 4, 0, 10, 3, 7, 11, 2, 8, 5]</t>
+        </is>
       </c>
       <c r="C121" t="n">
-        <v>0.04886913299560547</v>
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>43</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.1379995346069336</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>[12, 10, 8, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
         <v>15</v>
       </c>
-      <c r="B122" t="n">
-        <v>11</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>[2, 11, 7, 14, 3, 0, 9, 13, 8, 5, 1, 12, 10, 6, 4]</t>
+        </is>
       </c>
       <c r="C122" t="n">
-        <v>0.09731864929199219</v>
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>14</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.1090126037597656</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>[32, 24, 18, 14, 12, 8, 6, 6, 4, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
         <v>15</v>
       </c>
-      <c r="B123" t="n">
-        <v>22</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>[10, 1, 7, 2, 0, 13, 9, 4, 6, 11, 14, 12, 5, 3, 8]</t>
+        </is>
       </c>
       <c r="C123" t="n">
-        <v>0.1700806617736816</v>
+        <v>0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>14</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.1088507175445557</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>[28, 20, 14, 10, 8, 4, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
         <v>15</v>
       </c>
-      <c r="B124" t="n">
-        <v>44</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>[6, 4, 9, 14, 12, 5, 2, 0, 13, 11, 8, 3, 7, 10, 1]</t>
+        </is>
       </c>
       <c r="C124" t="n">
-        <v>0.3346431255340576</v>
+        <v>0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>24</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.1855342388153076</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>[12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
         <v>15</v>
       </c>
-      <c r="B125" t="n">
-        <v>89</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>[9, 14, 2, 8, 6, 13, 10, 0, 5, 12, 4, 1, 7, 11, 3]</t>
+        </is>
       </c>
       <c r="C125" t="n">
-        <v>0.6964032649993896</v>
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>21</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.1616191864013672</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>[20, 14, 10, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
         <v>15</v>
       </c>
-      <c r="B126" t="n">
-        <v>53</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>[12, 7, 13, 2, 5, 9, 11, 14, 3, 1, 6, 8, 10, 0, 4]</t>
+        </is>
       </c>
       <c r="C126" t="n">
-        <v>0.4014637470245361</v>
+        <v>0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>79</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.6128928661346436</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>[24, 18, 14, 12, 10, 6, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
         <v>15</v>
       </c>
-      <c r="B127" t="n">
-        <v>63</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[6, 14, 10, 4, 1, 12, 5, 3, 0, 9, 13, 2, 7, 11, 8]</t>
+        </is>
       </c>
       <c r="C127" t="n">
-        <v>0.4813365936279297</v>
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.09275197982788086</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[26, 18, 14, 10, 8, 6, 4, 4, 4, 4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
         <v>15</v>
       </c>
-      <c r="B128" t="n">
-        <v>9</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[7, 11, 6, 14, 1, 10, 4, 13, 3, 0, 9, 12, 2, 5, 8]</t>
+        </is>
       </c>
       <c r="C128" t="n">
-        <v>0.06981348991394043</v>
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>41</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.316340446472168</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[22, 14, 10, 8, 6, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
         <v>15</v>
       </c>
-      <c r="B129" t="n">
-        <v>64</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[6, 12, 5, 11, 14, 3, 10, 4, 2, 0, 9, 1, 8, 13, 7]</t>
+        </is>
       </c>
       <c r="C129" t="n">
-        <v>0.4943270683288574</v>
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>15</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.1159915924072266</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>[16, 12, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
         <v>15</v>
       </c>
-      <c r="B130" t="n">
-        <v>32</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[7, 13, 3, 5, 2, 8, 14, 11, 1, 6, 0, 10, 12, 4, 9]</t>
+        </is>
       </c>
       <c r="C130" t="n">
-        <v>0.2433490753173828</v>
+        <v>0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>17</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.1310272216796875</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>[34, 26, 20, 16, 12, 10, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
         <v>15</v>
       </c>
-      <c r="B131" t="n">
-        <v>32</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>[11, 3, 8, 6, 4, 0, 14, 12, 9, 13, 2, 5, 1, 10, 7]</t>
+        </is>
       </c>
       <c r="C131" t="n">
-        <v>0.2424540519714355</v>
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>22</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.1689975261688232</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>[24, 18, 12, 10, 8, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
         <v>15</v>
       </c>
-      <c r="B132" t="n">
-        <v>40</v>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[12, 5, 9, 14, 3, 8, 4, 1, 10, 0, 6, 11, 13, 2, 7]</t>
+        </is>
       </c>
       <c r="C132" t="n">
-        <v>0.3103036880493164</v>
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>68</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.5240037441253662</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>[16, 12, 10, 8, 6, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
         <v>15</v>
       </c>
-      <c r="B133" t="n">
-        <v>27</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[3, 6, 2, 9, 14, 12, 8, 1, 7, 13, 11, 0, 4, 10, 5]</t>
+        </is>
       </c>
       <c r="C133" t="n">
-        <v>0.2079861164093018</v>
+        <v>0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>33</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.2539851665496826</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>[22, 16, 12, 8, 6, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
         <v>15</v>
       </c>
-      <c r="B134" t="n">
-        <v>23</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>[10, 12, 1, 8, 0, 3, 14, 7, 11, 6, 2, 5, 13, 4, 9]</t>
+        </is>
       </c>
       <c r="C134" t="n">
-        <v>0.1725387573242188</v>
+        <v>0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>18</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.1379761695861816</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>[28, 20, 14, 10, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
         <v>15</v>
       </c>
-      <c r="B135" t="n">
-        <v>18</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>[8, 12, 4, 1, 7, 0, 13, 3, 14, 9, 11, 5, 2, 10, 6]</t>
+        </is>
       </c>
       <c r="C135" t="n">
-        <v>0.1361770629882812</v>
+        <v>0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>41</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.3159439563751221</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>[20, 16, 12, 8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
         <v>15</v>
       </c>
-      <c r="B136" t="n">
-        <v>78</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>[11, 9, 5, 13, 2, 0, 8, 1, 14, 10, 3, 7, 12, 4, 6]</t>
+        </is>
       </c>
       <c r="C136" t="n">
-        <v>0.5890274047851562</v>
+        <v>0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>83</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.6370737552642822</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>[36, 28, 22, 16, 10, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
         <v>15</v>
       </c>
-      <c r="B137" t="n">
-        <v>21</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>[10, 12, 0, 6, 8, 13, 2, 4, 14, 11, 9, 5, 3, 1, 7]</t>
+        </is>
       </c>
       <c r="C137" t="n">
-        <v>0.1651113033294678</v>
+        <v>0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>53</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.4086613655090332</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>[20, 16, 12, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
         <v>15</v>
       </c>
-      <c r="B138" t="n">
-        <v>26</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>[0, 5, 7, 14, 10, 2, 4, 8, 11, 3, 6, 13, 1, 12, 9]</t>
+        </is>
       </c>
       <c r="C138" t="n">
-        <v>0.2020139694213867</v>
+        <v>0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>106</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.8153383731842041</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>[20, 16, 12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
         <v>15</v>
       </c>
-      <c r="B139" t="n">
-        <v>23</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>[4, 10, 7, 11, 14, 12, 1, 6, 8, 3, 0, 9, 13, 2, 5]</t>
+        </is>
       </c>
       <c r="C139" t="n">
-        <v>0.1730706691741943</v>
+        <v>0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>104</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.7999794483184814</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>[26, 20, 16, 12, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
         <v>15</v>
       </c>
-      <c r="B140" t="n">
-        <v>33</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>[6, 2, 7, 11, 1, 12, 9, 5, 10, 4, 14, 0, 8, 3, 13]</t>
+        </is>
       </c>
       <c r="C140" t="n">
-        <v>0.2508831024169922</v>
+        <v>0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>136</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1.047023057937622</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>[22, 16, 12, 8, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
         <v>15</v>
       </c>
-      <c r="B141" t="n">
-        <v>10</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>[11, 1, 3, 10, 6, 13, 9, 0, 4, 14, 7, 5, 2, 8, 12]</t>
+        </is>
       </c>
       <c r="C141" t="n">
-        <v>0.07579779624938965</v>
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>16</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.1230144500732422</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>[26, 18, 12, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
         <v>15</v>
       </c>
-      <c r="B142" t="n">
-        <v>14</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[7, 3, 13, 0, 10, 1, 4, 11, 8, 12, 9, 2, 5, 14, 6]</t>
+        </is>
       </c>
       <c r="C142" t="n">
-        <v>0.1062495708465576</v>
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>7</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.05501770973205566</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>[22, 16, 10, 6, 4, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
         <v>15</v>
       </c>
-      <c r="B143" t="n">
-        <v>35</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>[8, 11, 5, 3, 13, 4, 10, 12, 14, 2, 0, 7, 9, 1, 6]</t>
+        </is>
       </c>
       <c r="C143" t="n">
-        <v>0.2678253650665283</v>
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>129</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.9899442195892334</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>[22, 14, 10, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
         <v>15</v>
       </c>
-      <c r="B144" t="n">
-        <v>62</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[8, 12, 5, 1, 11, 6, 0, 13, 4, 9, 14, 3, 7, 10, 2]</t>
+        </is>
       </c>
       <c r="C144" t="n">
-        <v>0.4788534641265869</v>
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>16</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.1239240169525146</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>[24, 18, 14, 10, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
         <v>15</v>
       </c>
-      <c r="B145" t="n">
-        <v>130</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[7, 9, 13, 6, 0, 11, 8, 1, 3, 10, 14, 2, 5, 12, 4]</t>
+        </is>
       </c>
       <c r="C145" t="n">
-        <v>0.9910814762115479</v>
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>63</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.4861011505126953</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>[28, 20, 16, 12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
         <v>15</v>
       </c>
-      <c r="B146" t="n">
-        <v>11</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>[10, 6, 11, 5, 8, 1, 12, 14, 3, 0, 7, 9, 4, 2, 13]</t>
+        </is>
       </c>
       <c r="C146" t="n">
-        <v>0.08533835411071777</v>
+        <v>0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>22</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.1689803600311279</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>[20, 16, 12, 8, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
         <v>15</v>
       </c>
-      <c r="B147" t="n">
-        <v>18</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>[10, 4, 0, 3, 9, 11, 8, 14, 1, 13, 7, 12, 6, 2, 5]</t>
+        </is>
       </c>
       <c r="C147" t="n">
-        <v>0.137631893157959</v>
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>21</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.1619994640350342</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>[22, 14, 10, 8, 6, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
         <v>15</v>
       </c>
-      <c r="B148" t="n">
-        <v>20</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>[11, 13, 6, 0, 12, 5, 1, 8, 4, 14, 9, 2, 10, 7, 3]</t>
+        </is>
       </c>
       <c r="C148" t="n">
-        <v>0.1501352787017822</v>
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>23</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.1779022216796875</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>[26, 20, 14, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
         <v>15</v>
       </c>
-      <c r="B149" t="n">
-        <v>29</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>[11, 7, 10, 13, 2, 8, 3, 0, 12, 1, 4, 6, 14, 9, 5]</t>
+        </is>
       </c>
       <c r="C149" t="n">
-        <v>0.2189524173736572</v>
+        <v>0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>153</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.17946457862854</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>[14, 10, 8, 6, 6, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
         <v>15</v>
       </c>
-      <c r="B150" t="n">
-        <v>78</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>[7, 4, 0, 9, 14, 1, 8, 6, 3, 13, 10, 12, 5, 2, 11]</t>
+        </is>
       </c>
       <c r="C150" t="n">
-        <v>0.6010074615478516</v>
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>37</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.2846739292144775</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>[22, 16, 12, 10, 8, 6, 6, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
         <v>15</v>
       </c>
-      <c r="B151" t="n">
-        <v>9</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>[9, 0, 6, 1, 7, 12, 8, 3, 14, 10, 5, 2, 4, 13, 11]</t>
+        </is>
       </c>
       <c r="C151" t="n">
-        <v>0.06981348991394043</v>
+        <v>0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>88</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.6768982410430908</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[18, 14, 12, 10, 8, 8, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/tp5-busquedas-locales/code/hill_climbing_results.xlsx
+++ b/tp5-busquedas-locales/code/hill_climbing_results.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>[3, 0, 0, 2]</t>
+          <t>[0, 3, 1, 1]</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -481,28 +481,28 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[0, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[2, 2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 0]</t>
+          <t>[2, 1, 2, 0]</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -510,28 +510,28 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 1, 3, 0]</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[4, 2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[2, 0, 0, 3]</t>
+          <t>[1, 3, 1, 0]</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -539,28 +539,28 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 2, 0]</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>[0, 3, 1, 1]</t>
+          <t>[2, 3, 3, 1]</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -568,28 +568,28 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0009973049163818359</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 0]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 0]</t>
+          <t>[0, 2, 0, 0]</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -597,28 +597,28 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[4, 2, 2, 0]</t>
+          <t>[4, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>[3, 2, 1, 0]</t>
+          <t>[0, 1, 1, 3]</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -626,28 +626,28 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[0, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.0009975433349609375</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[8, 4, 4, 2, 2, 2, 2, 2, 0]</t>
+          <t>[4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[3, 1, 1, 1]</t>
+          <t>[0, 3, 1, 3]</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -655,28 +655,28 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[0, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[4, 2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>[2, 2, 0, 3]</t>
+          <t>[0, 3, 1, 1]</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -684,28 +684,28 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[0, 3, 1, 2]</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>[3, 0, 3, 3]</t>
+          <t>[2, 1, 2, 2]</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -713,11 +713,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[3, 1, 0, 2]</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -727,14 +727,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[3, 2, 0, 2]</t>
+          <t>[2, 1, 3, 1]</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -742,28 +742,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>[3, 3, 3, 0]</t>
+          <t>[1, 1, 0, 3]</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -771,28 +771,28 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[1, 3, 0, 3]</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[4, 2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>[1, 2, 1, 3]</t>
+          <t>[0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -800,28 +800,28 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 0]</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[2, 2, 0]</t>
+          <t>[4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>[2, 0, 0, 1]</t>
+          <t>[1, 3, 0, 3]</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -829,7 +829,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -850,7 +850,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>[0, 3, 2, 3]</t>
+          <t>[2, 3, 0, 2]</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -865,21 +865,21 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0009975433349609375</v>
+        <v>0</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[4, 2, 2, 2, 2, 2, 0]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>[2, 0, 1, 0]</t>
+          <t>[2, 3, 2, 2]</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -887,28 +887,28 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 0]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>[1, 3, 3, 1]</t>
+          <t>[1, 0, 2, 0]</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -916,28 +916,28 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 2, 0]</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[4, 2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1]</t>
+          <t>[0, 2, 3, 2]</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -945,28 +945,28 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[0, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
         <v>0</v>
       </c>
-      <c r="E18" t="n">
-        <v>5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.0009975433349609375</v>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[4, 2, 2, 2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>[2, 3, 0, 3]</t>
+          <t>[2, 2, 1, 3]</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -974,28 +974,28 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 3]</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.0009968280792236328</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[3, 2, 3, 3]</t>
+          <t>[1, 1, 2, 0]</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1003,28 +1003,28 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[1, 3, 0, 0]</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[4, 2, 2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>[0, 3, 3, 0]</t>
+          <t>[0, 3, 1, 1]</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1032,28 +1032,28 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[0, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[4, 2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>[2, 1, 2, 0]</t>
+          <t>[3, 3, 2, 0]</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1061,28 +1061,28 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 0]</t>
         </is>
       </c>
       <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
         <v>0</v>
       </c>
-      <c r="E22" t="n">
-        <v>3</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0009975433349609375</v>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[2, 2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 0]</t>
+          <t>[1, 3, 0, 1]</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1090,28 +1090,28 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[4, 2, 0]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>[0, 3, 3, 0]</t>
+          <t>[1, 3, 0, 0]</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1126,21 +1126,21 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[4, 2, 2, 0]</t>
+          <t>[0]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>[3, 0, 2, 1]</t>
+          <t>[3, 1, 2, 2]</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1148,28 +1148,28 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[3, 3, 0, 2]</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>[3, 0, 3, 3]</t>
+          <t>[1, 2, 0, 0]</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1177,28 +1177,28 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[1, 3, 0, 3]</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[2, 2]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[0, 2, 1, 1]</t>
+          <t>[1, 1, 3, 3]</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1206,28 +1206,28 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[2, 0, 3, 0]</t>
         </is>
       </c>
       <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
+      <c r="F27" t="n">
         <v>0</v>
       </c>
-      <c r="E27" t="n">
-        <v>8</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.0009970664978027344</v>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 2]</t>
+          <t>[3, 0, 1, 2]</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1242,21 +1242,21 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[4, 0]</t>
+          <t>[4, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>[1, 2, 2, 0]</t>
+          <t>[0, 2, 0, 0]</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1264,28 +1264,28 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[1, 3, 0, 3]</t>
         </is>
       </c>
       <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>2</v>
+      </c>
+      <c r="F29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="n">
-        <v>6</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.0009973049163818359</v>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[2, 2, 2, 2, 2, 0]</t>
+          <t>[4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>[1, 3, 2, 3]</t>
+          <t>[2, 1, 1, 1]</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[1, 3, 0, 2]</t>
+          <t>[2, 0, 3, 1]</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[2, 0]</t>
+          <t>[4, 0]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>[2, 3, 3, 1]</t>
+          <t>[2, 2, 1, 1]</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1322,28 +1322,28 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[2, 0, 3, 1]</t>
+          <t>[2, 0, 1, 3]</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0]</t>
+          <t>[4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>[7, 2, 1, 1, 1, 5, 1, 7]</t>
+          <t>[2, 5, 1, 2, 5, 1, 7, 0]</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1351,28 +1351,28 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[5, 2, 6, 1, 7, 4, 0, 3]</t>
+          <t>[2, 5, 1, 6, 4, 0, 7, 3]</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>0.005984067916870117</v>
+        <v>0.002992868423461914</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[12, 6, 4, 2, 2, 2, 2, 0]</t>
+          <t>[8, 4, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>[3, 7, 3, 0, 4, 6, 5, 1]</t>
+          <t>[4, 7, 4, 2, 1, 1, 5, 7]</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1380,28 +1380,28 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[4, 7, 3, 0, 6, 1, 5, 2]</t>
+          <t>[4, 2, 0, 6, 1, 3, 5, 7]</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" t="n">
-        <v>0.001993417739868164</v>
+        <v>0.002991437911987305</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 0]</t>
+          <t>[8, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>[7, 1, 4, 5, 7, 4, 2, 4]</t>
+          <t>[1, 4, 2, 6, 6, 2, 6, 1]</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1409,28 +1409,28 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[6, 1, 3, 0, 7, 4, 2, 5]</t>
+          <t>[1, 4, 2, 7, 6, 3, 5, 0]</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>0.007978677749633789</v>
+        <v>0.003990411758422852</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[8, 6, 2, 2, 2, 2, 2, 0]</t>
+          <t>[8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>[5, 7, 5, 4, 6, 1, 1, 1]</t>
+          <t>[1, 2, 4, 5, 1, 3, 0, 1]</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1438,28 +1438,28 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[4, 2, 0, 5, 7, 1, 3, 6]</t>
+          <t>[4, 2, 5, 6, 1, 3, 0, 7]</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E35" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F35" t="n">
-        <v>0.008975982666015625</v>
+        <v>0.002991437911987305</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>[1, 3, 6, 5, 7, 6, 5, 2]</t>
+          <t>[5, 7, 6, 1, 0, 5, 7, 3]</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1467,28 +1467,28 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[5, 3, 6, 0, 7, 1, 4, 2]</t>
+          <t>[5, 2, 6, 1, 7, 4, 0, 3]</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002991914749145508</v>
+        <v>0.002991437911987305</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 2, 0]</t>
+          <t>[8, 6, 4, 0]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>[1, 4, 0, 0, 1, 5, 0, 4]</t>
+          <t>[6, 2, 6, 7, 5, 7, 1, 3]</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1496,28 +1496,28 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[5, 1, 6, 0, 3, 7, 4, 2]</t>
+          <t>[6, 4, 2, 0, 5, 7, 1, 3]</t>
         </is>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005984783172607422</v>
+        <v>0.001994609832763672</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[10, 6, 2, 2, 2, 2, 2, 0]</t>
+          <t>[6, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[7, 0, 7, 5, 4, 3, 1, 1]</t>
+          <t>[5, 4, 2, 3, 1, 7, 6, 7]</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1525,28 +1525,28 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[4, 0, 7, 5, 2, 6, 1, 3]</t>
+          <t>[6, 4, 1, 1, 5, 7, 2, 0]</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01196718215942383</v>
+        <v>0.004986763000488281</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[14, 10, 8, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[7, 0, 3, 6, 1, 3, 0, 2]</t>
+          <t>[3, 7, 2, 6, 5, 4, 0, 6]</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1554,28 +1554,28 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[3, 1, 6, 4, 0, 7, 5, 2]</t>
+          <t>[3, 6, 2, 7, 1, 4, 0, 5]</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F39" t="n">
-        <v>0.02991986274719238</v>
+        <v>0.00199437141418457</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[6, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[6, 4, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>[4, 6, 7, 7, 5, 7, 0, 2]</t>
+          <t>[5, 0, 3, 7, 5, 0, 1, 7]</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1583,28 +1583,28 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[3, 1, 6, 4, 0, 7, 5, 2]</t>
+          <t>[5, 0, 4, 7, 5, 3, 1, 4]</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E40" t="n">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03390932083129883</v>
+        <v>0.001993894577026367</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 5, 2, 5, 3, 2]</t>
+          <t>[3, 2, 1, 1, 0, 5, 0, 7]</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1612,28 +1612,28 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[4, 6, 1, 5, 2, 0, 7, 3]</t>
+          <t>[2, 2, 7, 1, 3, 5, 0, 4]</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E41" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F41" t="n">
-        <v>0.004987001419067383</v>
+        <v>0.002991914749145508</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[8, 6, 4, 4, 4, 2, 2, 0]</t>
+          <t>[8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>[5, 1, 3, 2, 1, 6, 0, 5]</t>
+          <t>[0, 4, 0, 3, 5, 4, 1, 3]</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1641,28 +1641,28 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[4, 1, 7, 0, 3, 6, 2, 5]</t>
+          <t>[6, 4, 0, 2, 5, 7, 1, 3]</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01296520233154297</v>
+        <v>0.001994609832763672</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>[6, 6, 4, 7, 7, 4, 7, 7]</t>
+          <t>[0, 7, 5, 7, 2, 5, 5, 4]</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1670,28 +1670,28 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[4, 6, 1, 3, 7, 0, 2, 5]</t>
+          <t>[1, 3, 5, 7, 2, 0, 6, 4]</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02293944358825684</v>
+        <v>0.002992153167724609</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[8, 6, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>[0, 2, 2, 2, 0, 7, 3, 5]</t>
+          <t>[3, 0, 5, 5, 3, 2, 5, 4]</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1699,28 +1699,28 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[5, 2, 6, 3, 0, 7, 1, 4]</t>
+          <t>[3, 0, 2, 5, 6, 1, 7, 4]</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01196694374084473</v>
+        <v>0.003989219665527344</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 10, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>[3, 2, 2, 6, 0, 6, 2, 2]</t>
+          <t>[5, 6, 1, 6, 1, 2, 4, 2]</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1728,28 +1728,28 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[3, 1, 7, 4, 6, 0, 2, 5]</t>
+          <t>[5, 7, 1, 6, 0, 2, 4, 7]</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>0.02792572975158691</v>
+        <v>0.002993106842041016</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[16, 10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>[7, 1, 5, 5, 7, 7, 1, 0]</t>
+          <t>[7, 5, 2, 1, 3, 5, 6, 1]</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1757,28 +1757,28 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[4, 1, 3, 5, 7, 2, 0, 6]</t>
+          <t>[2, 5, 7, 1, 3, 0, 6, 4]</t>
         </is>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F46" t="n">
-        <v>0.005983829498291016</v>
+        <v>0.002990484237670898</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[16, 8, 4, 2, 2, 2, 2, 0]</t>
+          <t>[8, 6, 4, 0]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>[3, 0, 3, 6, 7, 3, 0, 1]</t>
+          <t>[2, 3, 7, 1, 5, 7, 6, 5]</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1786,28 +1786,28 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[2, 7, 3, 6, 0, 5, 1, 4]</t>
+          <t>[2, 5, 7, 1, 3, 0, 6, 4]</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F47" t="n">
-        <v>0.02393603324890137</v>
+        <v>0.002992153167724609</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 6, 4, 0]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>[7, 4, 5, 2, 2, 1, 4, 4]</t>
+          <t>[2, 6, 5, 7, 7, 1, 0, 7]</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[7, 3, 0, 2, 5, 1, 6, 4]</t>
+          <t>[2, 6, 1, 7, 5, 3, 0, 4]</t>
         </is>
       </c>
       <c r="D48" t="n">
@@ -1829,14 +1829,14 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 0]</t>
+          <t>[8, 6, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>[7, 6, 7, 1, 1, 4, 5, 6]</t>
+          <t>[4, 7, 0, 4, 4, 2, 4, 0]</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1844,28 +1844,28 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[4, 2, 0, 6, 1, 7, 5, 3]</t>
+          <t>[1, 3, 0, 6, 4, 2, 5, 3]</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49" t="n">
-        <v>0.004986763000488281</v>
+        <v>0.002992153167724609</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[12, 8, 6, 4, 2, 2, 2, 0]</t>
+          <t>[14, 8, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>[4, 0, 0, 5, 3, 2, 1, 3]</t>
+          <t>[4, 1, 5, 4, 2, 5, 2, 4]</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1873,28 +1873,28 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[4, 0, 3, 5, 7, 1, 6, 2]</t>
+          <t>[4, 1, 3, 0, 2, 7, 2, 6]</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>0.008976459503173828</v>
+        <v>0.002992153167724609</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 6, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>[4, 1, 3, 4, 5, 3, 4, 5]</t>
+          <t>[6, 6, 4, 2, 2, 1, 5, 3]</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1902,28 +1902,28 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[4, 1, 5, 0, 6, 3, 7, 2]</t>
+          <t>[0, 6, 1, 4, 2, 7, 5, 3]</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E51" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F51" t="n">
-        <v>0.01496005058288574</v>
+        <v>0.00399017333984375</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[14, 8, 6, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[4, 0, 7, 4, 6, 4, 6, 7]</t>
+          <t>[7, 5, 4, 0, 7, 0, 2, 7]</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1931,28 +1931,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[5, 3, 6, 0, 7, 1, 4, 2]</t>
+          <t>[1, 5, 0, 6, 3, 0, 2, 7]</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01296496391296387</v>
+        <v>0.002991199493408203</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[8, 6, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>[0, 6, 6, 1, 2, 1, 4, 0]</t>
+          <t>[1, 3, 4, 7, 7, 7, 2, 3]</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1960,28 +1960,28 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[5, 3, 6, 0, 7, 1, 4, 2]</t>
+          <t>[1, 6, 4, 7, 3, 0, 2, 5]</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F53" t="n">
-        <v>0.008975744247436523</v>
+        <v>0.002991914749145508</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>[0, 2, 6, 6, 3, 0, 1, 5]</t>
+          <t>[6, 3, 4, 2, 2, 5, 1, 3]</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1989,28 +1989,28 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[1, 5, 0, 6, 3, 7, 2, 4]</t>
+          <t>[6, 3, 0, 2, 7, 5, 7, 1]</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F54" t="n">
-        <v>0.01894927024841309</v>
+        <v>0.002992391586303711</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[8, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>[5, 0, 7, 4, 2, 4, 5, 5]</t>
+          <t>[0, 6, 3, 0, 6, 2, 2, 3]</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2018,28 +2018,28 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[3, 5, 7, 1, 6, 0, 2, 4]</t>
+          <t>[0, 6, 3, 7, 7, 4, 2, 5]</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="F55" t="n">
-        <v>0.02393627166748047</v>
+        <v>0.00199437141418457</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[14, 10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>[4, 6, 5, 4, 7, 0, 5, 7]</t>
+          <t>[5, 1, 7, 7, 6, 5, 3, 7]</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2047,28 +2047,28 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[4, 6, 1, 5, 2, 0, 3, 7]</t>
+          <t>[5, 2, 0, 7, 6, 2, 3, 1]</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E56" t="n">
         <v>4</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002992153167724609</v>
+        <v>0.002993583679199219</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 0]</t>
+          <t>[16, 10, 8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>[3, 1, 2, 5, 7, 1, 6, 1]</t>
+          <t>[0, 0, 6, 0, 7, 2, 3, 6]</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -2076,28 +2076,28 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[3, 7, 0, 2, 5, 1, 6, 4]</t>
+          <t>[0, 2, 6, 1, 7, 2, 3, 5]</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E57" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>0.006981372833251953</v>
+        <v>0.001994609832763672</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[8, 6, 4, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>[7, 5, 6, 0, 5, 5, 4, 0]</t>
+          <t>[7, 4, 4, 2, 2, 4, 4, 4]</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2105,28 +2105,28 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[4, 0, 3, 5, 7, 1, 6, 2]</t>
+          <t>[3, 1, 6, 2, 5, 7, 0, 3]</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="F58" t="n">
-        <v>0.04089093208312988</v>
+        <v>0.00498652458190918</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 12, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>[7, 0, 1, 1, 3, 0, 4, 7]</t>
+          <t>[4, 2, 6, 3, 2, 5, 0, 1]</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2134,28 +2134,28 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[2, 5, 1, 6, 0, 3, 7, 4]</t>
+          <t>[4, 2, 7, 5, 1, 5, 0, 6]</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01097011566162109</v>
+        <v>0.003988981246948242</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[10, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>[5, 0, 6, 4, 6, 2, 4, 4]</t>
+          <t>[7, 0, 0, 5, 1, 3, 2, 2]</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2163,28 +2163,28 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[2, 5, 1, 6, 0, 3, 7, 4]</t>
+          <t>[7, 5, 0, 5, 1, 6, 6, 2]</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E60" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="F60" t="n">
-        <v>0.04587745666503906</v>
+        <v>0.001994609832763672</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[8, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[1, 2, 3, 2, 0, 6, 5, 2]</t>
+          <t>[5, 2, 7, 4, 6, 0, 0, 4]</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2192,28 +2192,28 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[7, 1, 4, 2, 0, 6, 3, 5]</t>
+          <t>[0, 2, 7, 1, 6, 3, 0, 4]</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E61" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003989219665527344</v>
+        <v>0.002992630004882812</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[14, 8, 6, 2, 2, 0]</t>
+          <t>[6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>[4, 2, 8, 0, 8, 4, 0, 7, 0, 2]</t>
+          <t>[4, 5, 9, 2, 5, 2, 5, 0, 5, 6]</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2221,28 +2221,28 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[2, 7, 5, 1, 8, 4, 0, 3, 9, 6]</t>
+          <t>[4, 1, 9, 9, 5, 3, 8, 0, 2, 6]</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="F62" t="n">
-        <v>0.2613012790679932</v>
+        <v>0.007978439331054688</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[12, 8, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 10, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>[8, 3, 1, 0, 7, 8, 4, 4, 2, 2]</t>
+          <t>[1, 6, 4, 5, 1, 7, 3, 3, 7, 5]</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2250,28 +2250,28 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[6, 3, 1, 8, 5, 2, 9, 7, 0, 4]</t>
+          <t>[1, 6, 4, 9, 5, 8, 0, 3, 7, 2]</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E63" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F63" t="n">
-        <v>0.04089093208312988</v>
+        <v>0.008976221084594727</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[14, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>[6, 5, 9, 6, 1, 8, 5, 4, 2, 4]</t>
+          <t>[1, 2, 6, 1, 8, 4, 0, 1, 9, 6]</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2279,28 +2279,28 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[9, 3, 5, 2, 8, 1, 4, 7, 0, 6]</t>
+          <t>[5, 2, 9, 1, 8, 4, 0, 7, 0, 6]</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>154</v>
+        <v>4</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2403569221496582</v>
+        <v>0.007978200912475586</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[12, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>[1, 9, 8, 5, 2, 8, 9, 3, 0, 8]</t>
+          <t>[7, 1, 6, 3, 0, 1, 0, 8, 5, 7]</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2308,28 +2308,28 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[6, 2, 7, 5, 0, 9, 1, 4, 8, 3]</t>
+          <t>[3, 1, 6, 9, 0, 4, 0, 8, 5, 7]</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E65" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="F65" t="n">
-        <v>0.03690147399902344</v>
+        <v>0.006981849670410156</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[8, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>[6, 7, 2, 9, 0, 3, 8, 5, 8, 8]</t>
+          <t>[7, 5, 9, 6, 6, 5, 1, 9, 4, 3]</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2337,28 +2337,28 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[6, 4, 1, 7, 0, 2, 8, 5, 3, 9]</t>
+          <t>[0, 5, 9, 6, 9, 2, 1, 8, 4, 7]</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E66" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F66" t="n">
-        <v>0.02094435691833496</v>
+        <v>0.009972810745239258</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[16, 10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 10, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>[1, 7, 4, 7, 2, 2, 8, 4, 3, 5]</t>
+          <t>[5, 8, 9, 6, 6, 2, 8, 7, 2, 1]</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2366,28 +2366,28 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[0, 7, 4, 1, 8, 2, 9, 6, 3, 5]</t>
+          <t>[5, 7, 9, 6, 0, 2, 8, 8, 4, 1]</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>0.007978439331054688</v>
+        <v>0.007979154586791992</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 2, 0]</t>
+          <t>[12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[7, 8, 6, 6, 3, 9, 2, 0, 9, 1]</t>
+          <t>[4, 2, 3, 8, 8, 1, 1, 9, 1, 1]</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2395,28 +2395,28 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[5, 8, 4, 0, 3, 8, 2, 7, 9, 1]</t>
+          <t>[4, 2, 3, 9, 7, 5, 1, 9, 6, 0]</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E68" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>1.553845167160034</v>
+        <v>0.007978439331054688</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[12, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>[0, 2, 8, 3, 1, 1, 5, 3, 8, 4]</t>
+          <t>[5, 1, 9, 5, 7, 9, 0, 2, 6, 4]</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2424,28 +2424,28 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[7, 2, 0, 6, 1, 9, 5, 3, 8, 4]</t>
+          <t>[1, 1, 8, 5, 7, 9, 0, 2, 6, 4]</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.006981372833251953</v>
+        <v>0.002992153167724609</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 2, 0]</t>
+          <t>[6, 6]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>[0, 7, 5, 9, 6, 5, 1, 7, 1, 9]</t>
+          <t>[3, 4, 0, 9, 1, 7, 2, 0, 4, 4]</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2453,28 +2453,28 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[4, 2, 5, 9, 6, 3, 0, 7, 1, 8]</t>
+          <t>[3, 5, 7, 9, 1, 6, 2, 0, 8, 4]</t>
         </is>
       </c>
       <c r="D70" t="n">
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>0.006981611251831055</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[18, 12, 6, 4, 0]</t>
+          <t>[10, 4, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[9, 5, 7, 7, 5, 4, 8, 7, 9, 6]</t>
+          <t>[3, 5, 1, 7, 8, 1, 4, 4, 6, 8]</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2482,28 +2482,28 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[0, 2, 5, 7, 9, 4, 8, 1, 3, 6]</t>
+          <t>[3, 0, 2, 7, 9, 7, 1, 4, 6, 8]</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E71" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F71" t="n">
-        <v>0.04787278175354004</v>
+        <v>0.01496124267578125</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[18, 12, 8, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[1, 0, 9, 7, 7, 7, 6, 6, 3, 5]</t>
+          <t>[1, 2, 9, 4, 2, 5, 6, 9, 8, 3]</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2511,28 +2511,28 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[4, 9, 3, 8, 2, 7, 1, 6, 0, 5]</t>
+          <t>[1, 4, 9, 4, 2, 5, 8, 6, 0, 3]</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E72" t="n">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1765275001525879</v>
+        <v>0.01994562149047852</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[14, 10, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>[0, 4, 9, 6, 9, 7, 6, 6, 3, 5]</t>
+          <t>[2, 0, 5, 9, 0, 3, 7, 9, 6, 1]</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2540,28 +2540,28 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[4, 7, 1, 6, 9, 2, 0, 8, 3, 5]</t>
+          <t>[2, 8, 5, 9, 0, 3, 7, 4, 8, 1]</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E73" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0109703540802002</v>
+        <v>0.005983591079711914</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[12, 8, 4, 4, 4, 2, 0]</t>
+          <t>[4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>[1, 3, 3, 7, 4, 8, 3, 2, 9, 2]</t>
+          <t>[7, 0, 3, 7, 5, 9, 9, 0, 2, 6]</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2569,28 +2569,28 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[5, 3, 1, 7, 4, 8, 0, 2, 9, 6]</t>
+          <t>[7, 0, 4, 8, 5, 9, 2, 5, 2, 6]</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F74" t="n">
-        <v>0.007978677749633789</v>
+        <v>0.0109705924987793</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[8, 6, 4, 2, 0]</t>
+          <t>[10, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>[8, 0, 0, 4, 5, 2, 2, 7, 0, 8]</t>
+          <t>[8, 6, 4, 7, 3, 4, 8, 3, 1, 7]</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2598,28 +2598,28 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[8, 0, 4, 9, 5, 2, 9, 7, 3, 1]</t>
+          <t>[8, 6, 2, 9, 7, 0, 8, 3, 1, 6]</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E75" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="F75" t="n">
-        <v>1.553845167160034</v>
+        <v>0.009973764419555664</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[14, 10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>[0, 9, 3, 4, 4, 0, 6, 9, 8, 4]</t>
+          <t>[3, 4, 0, 3, 5, 8, 9, 9, 0, 8]</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2627,28 +2627,28 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[7, 9, 4, 1, 5, 0, 2, 6, 8, 3]</t>
+          <t>[8, 4, 0, 7, 5, 2, 6, 9, 3, 8]</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E76" t="n">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2263946533203125</v>
+        <v>0.0109703540802002</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[20, 14, 10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>[0, 4, 1, 3, 8, 0, 5, 9, 1, 4]</t>
+          <t>[5, 8, 8, 1, 7, 2, 9, 0, 2, 7]</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2656,28 +2656,28 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[8, 4, 7, 3, 0, 2, 5, 9, 6, 1]</t>
+          <t>[5, 8, 8, 1, 4, 2, 9, 6, 3, 7]</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E77" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F77" t="n">
-        <v>0.01296544075012207</v>
+        <v>0.005983591079711914</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[8, 6, 6, 4, 4, 4, 2, 0]</t>
+          <t>[10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>[8, 3, 0, 3, 3, 9, 0, 5, 6, 5]</t>
+          <t>[8, 4, 4, 5, 9, 4, 4, 4, 4, 5]</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2685,28 +2685,28 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[1, 6, 8, 2, 7, 9, 3, 5, 0, 4]</t>
+          <t>[6, 4, 2, 0, 9, 7, 4, 0, 3, 5]</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E78" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
-        <v>0.02393651008605957</v>
+        <v>0.0109705924987793</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[16, 12, 8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[26, 18, 10, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>[9, 4, 5, 0, 4, 4, 0, 0, 6, 1]</t>
+          <t>[0, 6, 6, 6, 7, 5, 5, 0, 8, 9]</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2714,28 +2714,28 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[9, 3, 5, 2, 4, 7, 0, 8, 6, 1]</t>
+          <t>[2, 8, 6, 1, 7, 1, 5, 0, 9, 3]</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E79" t="n">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
-        <v>1.551850080490112</v>
+        <v>0.01196789741516113</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[12, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[20, 14, 10, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>[8, 5, 5, 4, 7, 7, 6, 4, 8, 1]</t>
+          <t>[3, 6, 5, 2, 7, 5, 1, 5, 9, 9]</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -2743,28 +2743,28 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[7, 5, 1, 6, 9, 0, 2, 4, 8, 3]</t>
+          <t>[8, 6, 4, 2, 7, 9, 1, 5, 9, 0]</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E80" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F80" t="n">
-        <v>0.01595783233642578</v>
+        <v>0.006981134414672852</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[12, 8, 6, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>[9, 7, 4, 3, 5, 4, 2, 7, 3, 8]</t>
+          <t>[8, 9, 7, 5, 0, 1, 8, 1, 0, 2]</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2772,28 +2772,28 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[0, 7, 1, 8, 5, 2, 9, 3, 6, 4]</t>
+          <t>[3, 9, 7, 4, 1, 1, 8, 5, 0, 2]</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E81" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F81" t="n">
-        <v>0.01894879341125488</v>
+        <v>0.007979154586791992</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[14, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 0]</t>
+          <t>[14, 8, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[3, 4, 0, 8, 2, 9, 2, 6, 0, 4]</t>
+          <t>[5, 3, 5, 3, 6, 8, 0, 5, 4, 9]</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2801,28 +2801,28 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[7, 4, 2, 0, 6, 9, 5, 8, 1, 3]</t>
+          <t>[5, 7, 1, 4, 6, 8, 0, 2, 3, 9]</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E82" t="n">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="F82" t="n">
-        <v>0.07081079483032227</v>
+        <v>0.008975505828857422</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[10, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 8, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>[8, 0, 0, 5, 6, 9, 0, 3, 6, 6]</t>
+          <t>[8, 0, 3, 4, 6, 7, 4, 8, 8, 8]</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2830,28 +2830,28 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[8, 3, 0, 4, 7, 9, 6, 2, 5, 1]</t>
+          <t>[8, 0, 3, 1, 6, 7, 9, 2, 5, 5]</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E83" t="n">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="F83" t="n">
-        <v>0.08876252174377441</v>
+        <v>0.007978916168212891</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[14, 8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>[4, 8, 3, 9, 3, 5, 0, 8, 4, 0]</t>
+          <t>[9, 4, 3, 0, 7, 3, 5, 5, 7, 9]</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2859,28 +2859,28 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[5, 3, 1, 4, 7, 9, 0, 2, 8, 6]</t>
+          <t>[9, 6, 3, 0, 7, 1, 8, 5, 2, 4]</t>
         </is>
       </c>
       <c r="D84" t="n">
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1605706214904785</v>
+        <v>0.007978677749633789</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 8, 4, 2, 0]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>[9, 6, 3, 4, 0, 5, 1, 5, 7, 6]</t>
+          <t>[3, 4, 7, 5, 6, 0, 7, 2, 5, 0]</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2888,28 +2888,28 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[6, 8, 3, 1, 4, 7, 9, 0, 2, 5]</t>
+          <t>[3, 1, 9, 5, 2, 0, 7, 2, 4, 8]</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E85" t="n">
-        <v>302</v>
+        <v>4</v>
       </c>
       <c r="F85" t="n">
-        <v>0.4697442054748535</v>
+        <v>0.007978439331054688</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[10, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 12, 8, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>[3, 9, 8, 2, 8, 0, 5, 2, 1, 5]</t>
+          <t>[5, 2, 2, 5, 2, 4, 8, 5, 5, 3]</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2917,28 +2917,28 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[2, 9, 6, 4, 0, 8, 5, 7, 1, 3]</t>
+          <t>[1, 1, 9, 7, 2, 4, 8, 0, 5, 3]</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F86" t="n">
-        <v>0.04388260841369629</v>
+        <v>0.007978916168212891</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[10, 8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[14, 8, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>[2, 9, 2, 9, 9, 5, 6, 3, 6, 0]</t>
+          <t>[6, 5, 7, 3, 2, 3, 7, 1, 3, 1]</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2946,28 +2946,28 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[7, 2, 4, 8, 1, 5, 9, 6, 0, 3]</t>
+          <t>[6, 4, 2, 0, 8, 4, 7, 9, 3, 1]</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E87" t="n">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1017282009124756</v>
+        <v>0.01196789741516113</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[16, 8, 6, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 12, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>[8, 4, 5, 6, 3, 2, 9, 9, 4, 0]</t>
+          <t>[2, 3, 5, 1, 6, 1, 3, 6, 6, 9]</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2975,28 +2975,28 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[8, 5, 2, 6, 3, 0, 7, 9, 4, 1]</t>
+          <t>[2, 7, 5, 8, 8, 1, 3, 6, 6, 9]</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
-        <v>0.007978439331054688</v>
+        <v>0.006981372833251953</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[16, 10, 6, 4, 0]</t>
+          <t>[12, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>[3, 6, 4, 3, 6, 4, 3, 4, 2, 9]</t>
+          <t>[5, 2, 2, 3, 4, 6, 9, 7, 9, 7]</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3004,28 +3004,28 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[3, 6, 0, 5, 8, 1, 7, 4, 2, 9]</t>
+          <t>[5, 2, 8, 3, 0, 6, 9, 1, 5, 7]</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F89" t="n">
-        <v>0.006981611251831055</v>
+        <v>0.007978439331054688</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[18, 10, 6, 2, 0]</t>
+          <t>[16, 10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>[9, 9, 5, 1, 2, 8, 2, 0, 1, 7]</t>
+          <t>[6, 4, 8, 5, 0, 0, 4, 9, 8, 0]</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -3033,28 +3033,28 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[0, 5, 3, 9, 6, 8, 2, 4, 1, 7]</t>
+          <t>[6, 4, 1, 5, 8, 2, 7, 3, 8, 0]</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1027255058288574</v>
+        <v>0.009973526000976562</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[14, 10, 6, 6, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[14, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>[1, 4, 9, 1, 7, 4, 1, 7, 9, 5]</t>
+          <t>[1, 5, 1, 1, 0, 1, 7, 9, 8, 4]</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -3062,28 +3062,28 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[2, 4, 7, 0, 8, 3, 1, 6, 9, 5]</t>
+          <t>[1, 5, 9, 6, 0, 2, 4, 9, 8, 3]</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E91" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F91" t="n">
-        <v>0.009973764419555664</v>
+        <v>0.007978677749633789</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[14, 8, 6, 4, 2, 0]</t>
+          <t>[14, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>[6, 11, 1, 1, 10, 11, 10, 8, 8, 4, 2, 0]</t>
+          <t>[8, 11, 6, 8, 4, 1, 8, 10, 7, 0, 2, 5]</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -3091,28 +3091,28 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[6, 9, 7, 1, 3, 5, 10, 8, 11, 4, 2, 0]</t>
+          <t>[7, 9, 3, 8, 4, 1, 8, 10, 7, 0, 2, 5]</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>1000</v>
+        <v>3</v>
       </c>
       <c r="F92" t="n">
-        <v>3.148580551147461</v>
+        <v>0.01296544075012207</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[14, 10, 8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>[0, 2, 5, 10, 10, 8, 1, 0, 1, 11, 10, 6]</t>
+          <t>[3, 11, 9, 0, 6, 10, 10, 10, 8, 7, 2, 11]</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3120,28 +3120,28 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[4, 2, 5, 8, 10, 7, 0, 3, 1, 6, 9, 11]</t>
+          <t>[4, 7, 9, 0, 6, 10, 1, 10, 8, 5, 3, 11]</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F93" t="n">
-        <v>0.03889608383178711</v>
+        <v>0.01695442199707031</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[20, 12, 8, 6, 4, 4, 4, 4, 4, 2, 2, 0]</t>
+          <t>[14, 10, 8, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>[6, 2, 7, 11, 5, 10, 7, 11, 11, 0, 11, 9]</t>
+          <t>[8, 7, 7, 5, 5, 8, 11, 9, 11, 0, 11, 10]</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -3149,28 +3149,28 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[4, 0, 8, 5, 1, 10, 7, 2, 11, 3, 6, 9]</t>
+          <t>[10, 7, 3, 1, 8, 2, 11, 9, 11, 0, 4, 4]</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E94" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F94" t="n">
-        <v>0.03490662574768066</v>
+        <v>0.02393603324890137</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[24, 16, 12, 10, 8, 6, 4, 4, 4, 2, 0]</t>
+          <t>[26, 18, 12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>[0, 5, 11, 3, 4, 3, 11, 4, 5, 7, 8, 10]</t>
+          <t>[8, 5, 10, 9, 1, 3, 10, 7, 8, 3, 0, 10]</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -3178,28 +3178,28 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[7, 0, 6, 3, 9, 11, 8, 4, 2, 10, 5, 1]</t>
+          <t>[2, 5, 11, 9, 1, 3, 11, 7, 8, 0, 0, 10]</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E95" t="n">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2114348411560059</v>
+        <v>0.01695466041564941</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[20, 14, 10, 8, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 12, 8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>[9, 0, 5, 0, 7, 4, 8, 3, 4, 3, 3, 6]</t>
+          <t>[8, 0, 4, 11, 9, 6, 10, 1, 9, 10, 5, 2]</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -3207,28 +3207,28 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[9, 0, 5, 7, 2, 11, 8, 1, 4, 10, 3, 6]</t>
+          <t>[3, 0, 4, 11, 1, 6, 10, 0, 9, 7, 5, 2]</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01595711708068848</v>
+        <v>0.01296544075012207</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[14, 8, 4, 2, 0]</t>
+          <t>[12, 8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>[8, 7, 9, 8, 6, 1, 2, 10, 3, 10, 2, 11]</t>
+          <t>[7, 4, 5, 4, 7, 8, 0, 9, 0, 3, 8, 10]</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -3236,28 +3236,28 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[0, 7, 11, 8, 1, 4, 9, 3, 6, 10, 2, 5]</t>
+          <t>[1, 6, 2, 11, 7, 1, 3, 9, 0, 4, 8, 10]</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1136960983276367</v>
+        <v>0.02692770957946777</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[14, 10, 6, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 14, 10, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[6, 8, 11, 9, 8, 0, 10, 3, 9, 6, 2, 10]</t>
+          <t>[9, 3, 10, 6, 5, 6, 5, 8, 11, 3, 9, 6]</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -3265,28 +3265,28 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[6, 8, 11, 1, 4, 0, 9, 3, 10, 2, 7, 5]</t>
+          <t>[7, 3, 10, 0, 2, 11, 5, 8, 11, 1, 4, 6]</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>0.05983996391296387</v>
+        <v>0.01994681358337402</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[10, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 0]</t>
+          <t>[24, 16, 12, 6, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>[2, 8, 3, 1, 0, 10, 11, 7, 7, 4, 6, 11]</t>
+          <t>[8, 8, 7, 3, 5, 0, 0, 4, 10, 6, 11, 0]</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -3294,28 +3294,28 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[10, 8, 3, 0, 2, 7, 5, 1, 11, 9, 6, 4]</t>
+          <t>[8, 8, 5, 3, 9, 0, 10, 4, 2, 5, 11, 1]</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E99" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F99" t="n">
-        <v>0.05983996391296387</v>
+        <v>0.01994633674621582</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[12, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 0]</t>
+          <t>[16, 12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>[11, 3, 0, 6, 9, 2, 11, 1, 9, 5, 10, 10]</t>
+          <t>[8, 8, 1, 6, 1, 2, 7, 3, 10, 9, 11, 6]</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -3323,28 +3323,28 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[8, 3, 7, 10, 2, 0, 5, 11, 9, 1, 6, 4]</t>
+          <t>[8, 5, 1, 6, 11, 2, 7, 3, 10, 7, 4, 0]</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E100" t="n">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2154240608215332</v>
+        <v>0.01695466041564941</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 8, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>[4, 8, 0, 5, 0, 4, 3, 8, 10, 10, 10, 3]</t>
+          <t>[5, 7, 10, 9, 9, 8, 6, 3, 11, 4, 10, 9]</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -3352,28 +3352,28 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[3, 8, 10, 5, 0, 11, 1, 6, 2, 9, 7, 4]</t>
+          <t>[5, 7, 2, 0, 3, 9, 6, 8, 11, 4, 1, 9]</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E101" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1107039451599121</v>
+        <v>0.02094411849975586</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[20, 14, 10, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 14, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>[7, 5, 9, 0, 4, 6, 0, 3, 11, 9, 8, 2]</t>
+          <t>[5, 3, 7, 7, 4, 9, 3, 7, 3, 4, 0, 5]</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -3381,28 +3381,28 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[0, 4, 10, 7, 3, 6, 11, 9, 1, 5, 8, 2]</t>
+          <t>[7, 3, 11, 9, 4, 1, 3, 10, 6, 2, 0, 5]</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F102" t="n">
-        <v>0.08876276016235352</v>
+        <v>0.02991986274719238</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[22, 16, 12, 10, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 10, 9, 3, 2, 4, 5, 9, 9, 9]</t>
+          <t>[8, 5, 2, 11, 5, 6, 10, 4, 6, 7, 1, 7]</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -3410,28 +3410,28 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[10, 4, 7, 3, 0, 11, 8, 1, 5, 2, 9, 6]</t>
+          <t>[8, 5, 2, 10, 5, 0, 9, 9, 6, 3, 1, 7]</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E103" t="n">
-        <v>159</v>
+        <v>4</v>
       </c>
       <c r="F103" t="n">
-        <v>0.5066452026367188</v>
+        <v>0.01695489883422852</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[18, 14, 10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 10, 8, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>[3, 5, 5, 5, 11, 8, 8, 9, 2, 11, 10, 10]</t>
+          <t>[10, 5, 11, 1, 5, 3, 3, 10, 9, 0, 5, 11]</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -3439,28 +3439,28 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[3, 5, 10, 1, 11, 6, 8, 0, 2, 4, 9, 7]</t>
+          <t>[7, 5, 11, 1, 6, 0, 3, 10, 0, 2, 4, 11]</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F104" t="n">
-        <v>0.03490686416625977</v>
+        <v>0.02094411849975586</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[22, 14, 8, 6, 4, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 12, 10, 8, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>[2, 1, 10, 7, 1, 7, 8, 6, 8, 7, 11, 6]</t>
+          <t>[2, 11, 1, 6, 7, 5, 8, 8, 3, 6, 5, 1]</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -3468,28 +3468,28 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[6, 3, 10, 4, 1, 8, 11, 7, 0, 2, 9, 5]</t>
+          <t>[2, 11, 1, 10, 4, 5, 0, 10, 3, 6, 9, 7]</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E105" t="n">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2253973484039307</v>
+        <v>0.02094483375549316</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[18, 12, 8, 6, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 14, 10, 8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>[7, 8, 7, 2, 2, 8, 11, 8, 9, 9, 4, 10]</t>
+          <t>[9, 4, 2, 11, 0, 10, 4, 10, 5, 5, 3, 2]</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -3497,28 +3497,28 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[7, 3, 6, 9, 2, 0, 11, 8, 5, 1, 4, 10]</t>
+          <t>[9, 7, 1, 11, 0, 6, 4, 10, 5, 11, 3, 1]</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F106" t="n">
-        <v>0.03191447257995605</v>
+        <v>0.03989291191101074</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[16, 10, 8, 6, 4, 2, 2, 2, 2, 0]</t>
+          <t>[16, 12, 8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>[7, 0, 7, 11, 10, 10, 5, 5, 8, 10, 9, 4]</t>
+          <t>[9, 2, 4, 5, 9, 7, 11, 9, 7, 7, 3, 7]</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -3526,28 +3526,28 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[5, 2, 6, 1, 11, 7, 3, 10, 8, 4, 9, 0]</t>
+          <t>[9, 2, 4, 6, 10, 0, 11, 1, 7, 9, 3, 8]</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E107" t="n">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1266613006591797</v>
+        <v>0.0468747615814209</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[16, 12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[24, 16, 10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>[9, 6, 2, 4, 6, 8, 10, 4, 10, 0, 6, 5]</t>
+          <t>[3, 4, 1, 4, 9, 7, 5, 8, 8, 9, 8, 8]</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -3555,28 +3555,28 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[9, 7, 2, 4, 6, 1, 10, 5, 11, 8, 3, 0]</t>
+          <t>[3, 11, 6, 4, 10, 1, 5, 2, 6, 9, 0, 8]</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F108" t="n">
-        <v>0.08477330207824707</v>
+        <v>0.02393531799316406</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[16, 12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 14, 10, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>[2, 9, 1, 2, 0, 3, 8, 1, 6, 5, 0, 5]</t>
+          <t>[4, 0, 1, 3, 0, 6, 7, 8, 9, 0, 2, 3]</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -3584,28 +3584,28 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[5, 9, 0, 3, 11, 6, 8, 10, 1, 4, 2, 7]</t>
+          <t>[4, 9, 1, 3, 10, 3, 7, 8, 11, 0, 2, 5]</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E109" t="n">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="F109" t="n">
-        <v>0.2672853469848633</v>
+        <v>0.01994705200195312</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[20, 14, 10, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 14, 10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>[2, 10, 3, 5, 3, 1, 9, 11, 5, 3, 0, 3]</t>
+          <t>[5, 7, 3, 3, 3, 7, 0, 4, 5, 8, 0, 3]</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -3613,28 +3613,28 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[10, 8, 3, 11, 4, 1, 9, 0, 5, 7, 2, 6]</t>
+          <t>[9, 6, 3, 1, 11, 7, 0, 11, 5, 8, 10, 3]</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E110" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F110" t="n">
-        <v>0.03091740608215332</v>
+        <v>0.02094340324401855</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[10, 6, 4, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[8, 3, 1, 5, 1, 8, 7, 9, 1, 9, 8, 4]</t>
+          <t>[9, 2, 3, 10, 11, 0, 3, 4, 3, 4, 0, 4]</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -3642,28 +3642,28 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[11, 3, 1, 6, 9, 0, 2, 5, 8, 10, 7, 4]</t>
+          <t>[9, 2, 6, 10, 1, 11, 8, 5, 3, 7, 0, 4]</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E111" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0857703685760498</v>
+        <v>0.02393603324890137</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[22, 16, 12, 8, 6, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[26, 18, 12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>[10, 8, 3, 10, 1, 8, 11, 7, 7, 11, 4, 11]</t>
+          <t>[4, 2, 6, 3, 7, 1, 1, 3, 11, 5, 3, 10]</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -3671,28 +3671,28 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[6, 2, 7, 5, 11, 8, 10, 0, 3, 9, 4, 1]</t>
+          <t>[4, 2, 6, 3, 7, 10, 1, 9, 5, 5, 0, 10]</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E112" t="n">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="F112" t="n">
-        <v>0.1934828758239746</v>
+        <v>0.01296544075012207</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[16, 10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>[4, 5, 1, 0, 1, 10, 2, 1, 8, 6, 3, 11]</t>
+          <t>[7, 3, 1, 5, 9, 0, 4, 3, 3, 10, 11, 1]</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -3700,28 +3700,28 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[4, 2, 11, 9, 7, 10, 3, 1, 8, 5, 0, 6]</t>
+          <t>[7, 3, 1, 5, 9, 0, 4, 10, 8, 6, 11, 2]</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E113" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>0.03191471099853516</v>
+        <v>0.01396274566650391</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[14, 10, 8, 8, 6, 4, 4, 2, 2, 0]</t>
+          <t>[10, 8, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>[3, 4, 5, 4, 6, 7, 6, 4, 8, 0, 8, 5]</t>
+          <t>[3, 5, 0, 6, 9, 2, 9, 7, 1, 4, 0, 10]</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -3729,28 +3729,28 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[3, 5, 11, 1, 10, 7, 2, 4, 8, 0, 9, 6]</t>
+          <t>[8, 5, 3, 9, 0, 2, 11, 7, 1, 4, 1, 10]</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E114" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0468742847442627</v>
+        <v>0.01994681358337402</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[20, 14, 10, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>[2, 7, 6, 6, 4, 3, 1, 5, 7, 10, 7, 5]</t>
+          <t>[2, 8, 0, 11, 6, 3, 10, 10, 3, 7, 8, 8]</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -3758,28 +3758,28 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[2, 9, 8, 6, 4, 1, 11, 5, 7, 10, 3, 0]</t>
+          <t>[5, 2, 0, 11, 6, 3, 10, 10, 4, 9, 1, 8]</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E115" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="F115" t="n">
-        <v>3.146586656570435</v>
+        <v>0.02094388008117676</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[14, 8, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2]</t>
+          <t>[20, 14, 10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>[9, 6, 10, 6, 1, 9, 8, 7, 5, 8, 8, 9]</t>
+          <t>[11, 8, 5, 6, 5, 7, 9, 3, 9, 6, 5, 11]</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -3787,28 +3787,28 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[6, 4, 10, 1, 3, 9, 11, 8, 5, 2, 0, 7]</t>
+          <t>[11, 8, 5, 1, 2, 7, 10, 3, 9, 6, 4, 0]</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E116" t="n">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="F116" t="n">
-        <v>0.2014615535736084</v>
+        <v>0.01695442199707031</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[18, 12, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[22, 12, 8, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>[6, 0, 11, 11, 3, 11, 4, 10, 6, 1, 10, 1]</t>
+          <t>[1, 11, 11, 9, 10, 6, 0, 3, 5, 2, 9, 4]</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -3816,28 +3816,28 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[5, 10, 4, 7, 0, 11, 1, 8, 6, 3, 9, 2]</t>
+          <t>[1, 11, 6, 8, 10, 0, 0, 3, 5, 7, 9, 4]</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E117" t="n">
-        <v>179</v>
+        <v>4</v>
       </c>
       <c r="F117" t="n">
-        <v>0.5664851665496826</v>
+        <v>0.01695466041564941</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[16, 12, 8, 6, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 8, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>[2, 2, 0, 6, 10, 1, 4, 10, 4, 2, 3, 9]</t>
+          <t>[7, 8, 11, 1, 5, 9, 10, 1, 8, 2, 7, 3]</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -3845,28 +3845,28 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[11, 2, 7, 5, 10, 1, 4, 0, 8, 3, 9, 6]</t>
+          <t>[7, 4, 11, 0, 5, 10, 4, 1, 8, 2, 9, 3]</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F118" t="n">
-        <v>0.05086445808410645</v>
+        <v>0.01994681358337402</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[18, 14, 10, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[10, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>[5, 9, 8, 8, 2, 7, 3, 6, 9, 7, 7, 2]</t>
+          <t>[8, 9, 6, 1, 6, 0, 2, 4, 5, 2, 8, 2]</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3874,28 +3874,28 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[6, 4, 1, 8, 11, 7, 3, 0, 9, 5, 10, 2]</t>
+          <t>[3, 9, 6, 4, 0, 0, 11, 7, 5, 2, 8, 10]</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E119" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="F119" t="n">
-        <v>0.1047196388244629</v>
+        <v>0.02393627166748047</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[16, 12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 14, 10, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>[2, 8, 1, 5, 6, 1, 7, 5, 3, 6, 10, 9]</t>
+          <t>[3, 5, 5, 10, 6, 11, 11, 0, 2, 3, 9, 8]</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3903,28 +3903,28 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[5, 8, 0, 11, 6, 1, 7, 10, 3, 9, 2, 4]</t>
+          <t>[1, 5, 7, 10, 6, 11, 2, 0, 6, 3, 9, 4]</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F120" t="n">
-        <v>0.09574413299560547</v>
+        <v>0.01695489883422852</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[10, 8, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[12, 10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>[11, 4, 9, 2, 6, 0, 9, 7, 4, 5, 2, 1]</t>
+          <t>[7, 4, 11, 10, 4, 6, 4, 5, 2, 9, 10, 7]</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3932,28 +3932,28 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[5, 10, 1, 4, 6, 11, 9, 7, 0, 3, 8, 2]</t>
+          <t>[6, 4, 11, 1, 4, 6, 8, 5, 2, 0, 9, 7]</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E121" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F121" t="n">
-        <v>0.06981325149536133</v>
+        <v>0.01695418357849121</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[20, 16, 12, 8, 6, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 12, 8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>[10, 0, 12, 9, 12, 5, 11, 0, 9, 4, 6, 8, 3, 9, 5]</t>
+          <t>[0, 11, 2, 6, 8, 6, 14, 7, 14, 2, 14, 5, 14, 5, 13]</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3961,28 +3961,28 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[3, 0, 12, 9, 2, 5, 11, 14, 10, 4, 6, 8, 13, 7, 1]</t>
+          <t>[1, 11, 4, 6, 8, 12, 14, 7, 14, 2, 0, 5, 9, 11, 13]</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E122" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0827786922454834</v>
+        <v>0.04787206649780273</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[20, 16, 12, 10, 8, 6, 4, 4, 4, 2, 0]</t>
+          <t>[24, 18, 14, 10, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>[10, 4, 10, 13, 8, 3, 6, 2, 8, 3, 12, 0, 2, 5, 8]</t>
+          <t>[6, 6, 3, 13, 8, 11, 7, 3, 10, 8, 5, 6, 6, 0, 11]</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3990,28 +3990,28 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[1, 4, 10, 14, 9, 3, 13, 2, 7, 11, 6, 0, 12, 5, 8]</t>
+          <t>[6, 0, 7, 13, 8, 14, 7, 3, 10, 2, 5, 9, 12, 1, 11]</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F123" t="n">
-        <v>0.06781864166259766</v>
+        <v>0.06382918357849121</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[24, 18, 12, 8, 4, 4, 4, 2, 0]</t>
+          <t>[22, 16, 10, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>[8, 2, 4, 0, 14, 6, 3, 3, 14, 14, 12, 0, 0, 8, 5]</t>
+          <t>[5, 0, 9, 12, 9, 0, 10, 1, 3, 1, 9, 5, 5, 8, 10]</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -4019,28 +4019,28 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[11, 8, 3, 1, 14, 2, 10, 13, 7, 12, 4, 6, 0, 9, 5]</t>
+          <t>[2, 8, 5, 12, 0, 13, 10, 1, 3, 1, 9, 11, 5, 14, 0]</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E124" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1884961128234863</v>
+        <v>0.06283211708068848</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[20, 14, 10, 8, 6, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[28, 22, 16, 12, 10, 8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>[0, 6, 9, 13, 0, 7, 8, 1, 14, 11, 5, 3, 3, 11, 2]</t>
+          <t>[10, 5, 11, 6, 1, 10, 9, 0, 11, 4, 2, 1, 8, 7, 4]</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -4048,28 +4048,28 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[13, 11, 3, 8, 6, 4, 1, 7, 0, 12, 14, 9, 5, 10, 2]</t>
+          <t>[10, 5, 11, 6, 1, 12, 9, 0, 3, 14, 2, 13, 10, 7, 4]</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="F125" t="n">
-        <v>1.039221286773682</v>
+        <v>0.04787182807922363</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[12, 10, 8, 6, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>[6, 8, 0, 14, 10, 3, 7, 5, 9, 0, 6, 10, 12, 12, 3]</t>
+          <t>[9, 14, 1, 8, 11, 9, 8, 14, 13, 10, 1, 7, 9, 0, 11]</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -4077,28 +4077,28 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[4, 0, 9, 14, 10, 8, 3, 5, 2, 11, 6, 12, 7, 13, 1]</t>
+          <t>[4, 14, 1, 9, 12, 3, 8, 2, 13, 10, 13, 7, 5, 0, 11]</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F126" t="n">
-        <v>0.2772583961486816</v>
+        <v>0.06283187866210938</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[24, 20, 16, 12, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[22, 16, 10, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>[7, 1, 8, 1, 10, 13, 9, 5, 9, 12, 5, 10, 0, 10, 11]</t>
+          <t>[14, 9, 7, 2, 12, 5, 4, 1, 3, 9, 7, 10, 14, 13, 0]</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -4106,28 +4106,28 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[7, 1, 13, 5, 10, 4, 14, 3, 9, 12, 8, 2, 0, 6, 11]</t>
+          <t>[6, 11, 13, 4, 12, 8, 4, 1, 3, 9, 7, 10, 14, 6, 0]</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E127" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F127" t="n">
-        <v>0.09773874282836914</v>
+        <v>0.04787206649780273</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[20, 16, 12, 8, 6, 4, 4, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>[2, 13, 5, 6, 2, 6, 11, 5, 11, 12, 8, 9, 4, 0, 7]</t>
+          <t>[6, 3, 5, 10, 4, 7, 5, 1, 1, 11, 1, 13, 4, 7, 9]</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -4135,28 +4135,28 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[13, 10, 7, 3, 0, 2, 8, 1, 14, 12, 5, 9, 11, 6, 4]</t>
+          <t>[6, 3, 10, 10, 14, 14, 5, 8, 1, 12, 0, 13, 4, 7, 9]</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E128" t="n">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="F128" t="n">
-        <v>0.3201439380645752</v>
+        <v>0.04886937141418457</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[26, 18, 12, 8, 6, 6, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[24, 16, 12, 8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>[6, 10, 12, 2, 1, 3, 14, 6, 7, 2, 6, 11, 6, 13, 0]</t>
+          <t>[2, 9, 1, 5, 4, 9, 7, 14, 2, 7, 6, 0, 14, 5, 13]</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -4164,28 +4164,28 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[6, 4, 12, 8, 0, 3, 14, 11, 7, 10, 2, 5, 1, 13, 9]</t>
+          <t>[2, 9, 1, 12, 4, 9, 7, 14, 11, 3, 6, 0, 10, 5, 11]</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E129" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F129" t="n">
-        <v>0.3530559539794922</v>
+        <v>0.03989338874816895</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[20, 14, 10, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 12, 8, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>[10, 14, 3, 2, 3, 0, 8, 2, 7, 13, 8, 14, 7, 1, 3]</t>
+          <t>[10, 7, 13, 9, 8, 9, 5, 6, 0, 10, 6, 7, 6, 14, 11]</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -4193,28 +4193,28 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[10, 6, 11, 9, 5, 0, 2, 4, 7, 13, 8, 14, 12, 1, 3]</t>
+          <t>[10, 3, 13, 9, 8, 12, 5, 2, 0, 7, 4, 7, 1, 14, 11]</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E130" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F130" t="n">
-        <v>0.07679462432861328</v>
+        <v>0.05485343933105469</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[26, 20, 16, 12, 10, 6, 4, 4, 2, 0]</t>
+          <t>[22, 16, 12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>[6, 5, 4, 4, 13, 5, 10, 5, 10, 14, 12, 13, 1, 12, 4]</t>
+          <t>[1, 11, 8, 2, 9, 7, 14, 13, 1, 7, 9, 4, 3, 5, 14]</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -4222,28 +4222,28 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[7, 1, 4, 2, 5, 14, 10, 13, 0, 12, 8, 6, 3, 9, 11]</t>
+          <t>[1, 10, 12, 2, 9, 7, 0, 13, 11, 7, 14, 6, 3, 5, 11]</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3321123123168945</v>
+        <v>0.05485296249389648</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[26, 18, 12, 10, 8, 6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 12, 10, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>[0, 14, 3, 13, 9, 11, 1, 9, 7, 6, 5, 1, 2, 9, 13]</t>
+          <t>[11, 5, 6, 3, 1, 4, 6, 3, 9, 10, 12, 11, 7, 12, 10]</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -4251,28 +4251,28 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[6, 11, 3, 5, 9, 14, 1, 7, 2, 12, 8, 0, 4, 10, 13]</t>
+          <t>[11, 5, 0, 13, 1, 4, 6, 3, 9, 14, 12, 2, 7, 8, 1]</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E132" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="F132" t="n">
-        <v>0.1725382804870605</v>
+        <v>0.0468745231628418</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[26, 18, 12, 8, 6, 6, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 4, 2, 0]</t>
+          <t>[22, 16, 10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>[10, 11, 9, 14, 5, 9, 4, 8, 14, 12, 4, 13, 5, 8, 3]</t>
+          <t>[10, 4, 12, 12, 2, 0, 13, 14, 1, 9, 0, 14, 6, 3, 2]</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -4280,28 +4280,28 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[2, 6, 11, 13, 0, 9, 5, 1, 14, 12, 8, 4, 7, 10, 3]</t>
+          <t>[4, 6, 10, 5, 2, 0, 13, 8, 1, 9, 7, 14, 11, 3, 10]</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E133" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2253971099853516</v>
+        <v>0.07878923416137695</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[20, 16, 12, 8, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 16, 14, 12, 10, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>[3, 6, 13, 11, 2, 4, 1, 12, 11, 11, 10, 0, 12, 4, 0]</t>
+          <t>[4, 9, 1, 14, 10, 6, 14, 12, 6, 11, 8, 10, 0, 6, 2]</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -4309,28 +4309,28 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[4, 11, 5, 10, 2, 13, 8, 12, 14, 1, 6, 0, 3, 7, 9]</t>
+          <t>[4, 9, 1, 12, 10, 6, 2, 12, 5, 11, 8, 14, 0, 13, 7]</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E134" t="n">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="F134" t="n">
-        <v>0.386965274810791</v>
+        <v>0.05585050582885742</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[18, 14, 12, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 12, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>[13, 8, 14, 11, 1, 9, 3, 3, 11, 7, 3, 2, 1, 11, 7]</t>
+          <t>[10, 14, 0, 12, 1, 2, 0, 9, 1, 14, 11, 10, 12, 11, 10]</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -4338,28 +4338,28 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[7, 2, 10, 6, 13, 9, 5, 3, 0, 14, 12, 4, 1, 8, 11]</t>
+          <t>[10, 0, 6, 12, 7, 2, 0, 9, 1, 4, 11, 3, 8, 13, 5]</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E135" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="F135" t="n">
-        <v>0.309173583984375</v>
+        <v>0.06283211708068848</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[28, 22, 16, 10, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[22, 18, 14, 10, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>[9, 11, 13, 5, 11, 13, 3, 6, 13, 1, 7, 8, 9, 11, 5]</t>
+          <t>[10, 1, 0, 2, 1, 4, 1, 11, 6, 12, 5, 2, 1, 13, 3]</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -4367,28 +4367,28 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[12, 6, 9, 3, 0, 13, 10, 1, 14, 11, 7, 4, 2, 8, 5]</t>
+          <t>[10, 7, 14, 8, 1, 4, 0, 11, 6, 12, 5, 2, 8, 13, 3]</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E136" t="n">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2333760261535645</v>
+        <v>0.04787206649780273</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[26, 20, 14, 10, 8, 6, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 12, 8, 6, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>[8, 1, 6, 4, 6, 8, 14, 4, 4, 2, 10, 5, 8, 11, 6]</t>
+          <t>[2, 9, 12, 9, 14, 0, 10, 8, 0, 13, 7, 9, 8, 10, 11]</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -4396,28 +4396,28 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[9, 5, 13, 4, 6, 8, 12, 14, 0, 2, 10, 1, 7, 11, 3]</t>
+          <t>[2, 9, 5, 3, 14, 0, 4, 8, 0, 13, 7, 10, 1, 6, 11]</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E137" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F137" t="n">
-        <v>0.104719877243042</v>
+        <v>0.05485343933105469</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[28, 20, 14, 10, 6, 4, 4, 4, 4, 4, 4, 2, 2, 0]</t>
+          <t>[18, 14, 12, 10, 8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>[14, 13, 9, 3, 2, 9, 3, 10, 0, 1, 8, 0, 12, 11, 10]</t>
+          <t>[4, 2, 8, 3, 1, 2, 5, 9, 5, 0, 10, 11, 1, 2, 9]</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -4425,28 +4425,28 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[14, 7, 9, 2, 0, 5, 3, 10, 13, 11, 8, 12, 4, 6, 1]</t>
+          <t>[4, 11, 8, 3, 1, 12, 5, 9, 6, 0, 10, 7, 13, 2, 9]</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E138" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F138" t="n">
-        <v>0.3311147689819336</v>
+        <v>0.04787206649780273</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[26, 20, 14, 10, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 14, 10, 8, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>[13, 11, 8, 14, 2, 5, 1, 13, 11, 7, 8, 6, 12, 0, 2]</t>
+          <t>[3, 5, 9, 13, 9, 4, 6, 11, 2, 13, 7, 11, 0, 14, 2]</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -4454,28 +4454,28 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[10, 6, 14, 12, 2, 4, 7, 11, 0, 3, 1, 8, 5, 13, 9]</t>
+          <t>[14, 5, 0, 13, 9, 4, 1, 8, 2, 12, 7, 11, 0, 6, 10]</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E139" t="n">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4657547473907471</v>
+        <v>0.05585026741027832</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[22, 18, 14, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 12, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>[14, 2, 7, 3, 8, 5, 1, 3, 4, 7, 7, 8, 2, 10, 6]</t>
+          <t>[11, 2, 13, 2, 2, 7, 6, 1, 5, 0, 14, 13, 6, 3, 0]</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -4483,28 +4483,28 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[9, 5, 2, 8, 11, 0, 12, 1, 4, 7, 13, 10, 14, 6, 3]</t>
+          <t>[0, 9, 13, 4, 2, 7, 11, 1, 5, 12, 14, 8, 8, 3, 0]</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E140" t="n">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3899571895599365</v>
+        <v>0.05485343933105469</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[20, 16, 12, 10, 8, 6, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[18, 14, 12, 10, 8, 6, 6]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>[6, 11, 12, 1, 4, 2, 12, 14, 11, 3, 11, 6, 12, 6, 3]</t>
+          <t>[9, 4, 5, 0, 3, 7, 2, 8, 5, 13, 9, 13, 7, 12, 14]</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -4512,28 +4512,28 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[6, 11, 9, 1, 4, 14, 10, 2, 7, 12, 0, 13, 8, 5, 3]</t>
+          <t>[9, 12, 10, 0, 3, 11, 2, 8, 6, 13, 1, 13, 7, 5, 14]</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E141" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F141" t="n">
-        <v>0.1226720809936523</v>
+        <v>0.05485343933105469</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[26, 20, 14, 10, 6, 4, 4, 4, 4, 4, 4, 4, 4, 2, 2, 0]</t>
+          <t>[16, 12, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>[3, 14, 4, 5, 5, 12, 13, 13, 5, 13, 10, 11, 12, 12, 12]</t>
+          <t>[10, 13, 4, 10, 10, 2, 13, 6, 4, 13, 6, 13, 0, 14, 0]</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -4541,28 +4541,28 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[8, 14, 7, 1, 3, 0, 13, 9, 5, 12, 2, 11, 6, 4, 10]</t>
+          <t>[8, 1, 4, 12, 10, 2, 11, 6, 3, 13, 6, 9, 0, 14, 5]</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E142" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="F142" t="n">
-        <v>0.1805171966552734</v>
+        <v>0.06382918357849121</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[28, 22, 16, 10, 8, 6, 6, 6, 6, 6, 6, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[30, 22, 16, 10, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>[2, 3, 10, 8, 1, 4, 8, 14, 11, 4, 1, 7, 1, 12, 10]</t>
+          <t>[3, 0, 4, 11, 5, 13, 11, 0, 9, 1, 13, 11, 8, 14, 6]</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -4570,28 +4570,28 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[2, 8, 10, 13, 3, 1, 9, 11, 6, 4, 0, 12, 5, 7, 14]</t>
+          <t>[3, 7, 4, 10, 5, 13, 11, 0, 7, 1, 1, 6, 8, 14, 12]</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E143" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F143" t="n">
-        <v>0.3301172256469727</v>
+        <v>0.04787206649780273</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[20, 14, 10, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 16, 12, 10, 8, 8]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>[9, 10, 6, 5, 7, 14, 1, 6, 4, 13, 0, 1, 3, 6, 8]</t>
+          <t>[10, 13, 7, 11, 0, 13, 2, 2, 4, 4, 1, 7, 11, 3, 12]</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -4599,28 +4599,28 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[13, 10, 7, 5, 2, 11, 1, 14, 4, 9, 0, 12, 3, 6, 8]</t>
+          <t>[10, 5, 7, 11, 0, 2, 6, 13, 9, 4, 1, 14, 11, 3, 12]</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E144" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F144" t="n">
-        <v>0.07579755783081055</v>
+        <v>0.05983996391296387</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[20, 14, 10, 8, 6, 6, 4, 2, 2, 0]</t>
+          <t>[22, 16, 12, 8, 6, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>[13, 2, 14, 6, 12, 14, 7, 0, 9, 13, 5, 9, 14, 8, 13]</t>
+          <t>[4, 2, 7, 7, 1, 3, 8, 9, 8, 6, 6, 6, 2, 10, 11]</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -4628,28 +4628,28 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[5, 13, 2, 9, 12, 3, 7, 11, 1, 6, 0, 10, 14, 4, 8]</t>
+          <t>[4, 2, 7, 9, 14, 3, 13, 0, 8, 12, 1, 6, 2, 10, 13]</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E145" t="n">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="F145" t="n">
-        <v>0.3071784973144531</v>
+        <v>0.07779240608215332</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[20, 14, 10, 8, 6, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[26, 20, 16, 12, 8, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>[6, 11, 13, 10, 14, 7, 3, 11, 14, 6, 10, 14, 13, 14, 10]</t>
+          <t>[10, 1, 5, 14, 1, 10, 13, 9, 10, 5, 4, 11, 8, 3, 1]</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -4657,28 +4657,28 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[4, 2, 13, 10, 6, 11, 3, 7, 0, 14, 9, 1, 5, 8, 12]</t>
+          <t>[12, 2, 5, 14, 1, 10, 13, 9, 0, 4, 14, 11, 8, 3, 7]</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E146" t="n">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="F146" t="n">
-        <v>0.6542506217956543</v>
+        <v>0.04787158966064453</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[30, 24, 18, 12, 8, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[20, 14, 10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>[12, 7, 0, 4, 2, 5, 12, 0, 1, 6, 14, 2, 10, 2, 7]</t>
+          <t>[12, 11, 13, 0, 13, 0, 2, 2, 11, 7, 10, 12, 6, 14, 11]</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -4686,28 +4686,28 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[0, 7, 10, 4, 13, 1, 8, 12, 3, 6, 14, 9, 11, 5, 2]</t>
+          <t>[12, 5, 1, 8, 13, 0, 2, 0, 11, 7, 10, 3, 6, 14, 4]</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E147" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="F147" t="n">
-        <v>0.2802507877349854</v>
+        <v>0.04886913299560547</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[22, 14, 12, 10, 8, 6, 4, 4, 4, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[16, 12, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>[8, 4, 9, 9, 3, 3, 7, 3, 6, 3, 8, 3, 0, 4, 1]</t>
+          <t>[6, 12, 9, 14, 3, 3, 12, 7, 2, 3, 5, 14, 0, 3, 7]</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -4715,28 +4715,28 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[8, 11, 9, 0, 3, 14, 12, 2, 6, 13, 10, 5, 1, 4, 7]</t>
+          <t>[8, 11, 9, 4, 0, 3, 12, 7, 2, 13, 5, 14, 1, 10, 7]</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E148" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F148" t="n">
-        <v>0.08975982666015625</v>
+        <v>0.05585122108459473</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[28, 18, 12, 8, 6, 4, 4, 4, 4, 4, 2, 0]</t>
+          <t>[16, 12, 10, 8, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>[11, 3, 2, 12, 3, 12, 9, 2, 10, 12, 10, 4, 9, 3, 4]</t>
+          <t>[0, 10, 3, 2, 13, 10, 4, 8, 9, 1, 10, 11, 10, 7, 7]</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -4744,28 +4744,28 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[8, 11, 4, 2, 10, 12, 7, 0, 3, 1, 14, 9, 6, 13, 5]</t>
+          <t>[13, 3, 5, 0, 12, 10, 4, 2, 4, 8, 14, 11, 6, 1, 7]</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E149" t="n">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F149" t="n">
-        <v>0.5585067272186279</v>
+        <v>0.08676815032958984</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[32, 24, 18, 12, 8, 6, 6, 4, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[30, 24, 18, 14, 12, 10, 8, 6, 4, 2, 2]</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>[11, 12, 10, 7, 9, 0, 13, 0, 12, 8, 5, 0, 12, 7, 14]</t>
+          <t>[4, 14, 5, 14, 11, 11, 11, 13, 8, 12, 9, 12, 3, 3, 7]</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -4773,28 +4773,28 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[8, 14, 3, 7, 9, 1, 13, 0, 6, 11, 2, 5, 12, 10, 4]</t>
+          <t>[4, 6, 5, 14, 11, 0, 2, 13, 8, 1, 9, 12, 10, 1, 7]</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E150" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="F150" t="n">
-        <v>0.3321118354797363</v>
+        <v>0.05086350440979004</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[20, 14, 8, 6, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 2, 0]</t>
+          <t>[22, 16, 10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>[12, 0, 8, 4, 14, 0, 14, 12, 10, 8, 6, 11, 5, 10, 7]</t>
+          <t>[9, 12, 12, 2, 14, 8, 3, 11, 0, 11, 7, 5, 12, 1, 2]</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -4802,21 +4802,21 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[9, 14, 8, 4, 2, 0, 5, 12, 10, 13, 6, 3, 1, 7, 11]</t>
+          <t>[9, 6, 10, 2, 14, 8, 4, 13, 0, 11, 7, 5, 12, 1, 9]</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E151" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="F151" t="n">
-        <v>0.08976006507873535</v>
+        <v>0.06935715675354004</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[14, 10, 8, 6, 6, 6, 6, 4, 4, 2, 2, 0]</t>
+          <t>[18, 14, 10, 6, 4, 4]</t>
         </is>
       </c>
     </row>
